--- a/oa_debt_equity_model.xlsx
+++ b/oa_debt_equity_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hontzd/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B093ACBE-A67C-4446-852E-58F64B565B4C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BD9CBA-991B-D249-B2DA-FE08FE419A49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28880" windowHeight="15640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="1080" windowWidth="28880" windowHeight="15640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTIONS - READ FIRST" sheetId="12" r:id="rId1"/>
@@ -2998,6 +2998,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFEFFB8"/>
       <color rgb="FF0432FF"/>
     </mruColors>
   </colors>
@@ -3018,8 +3019,8 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
@@ -3030,6 +3031,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ADD559E-3F0A-4083-B81C-CD717158DA22}"/>
@@ -3040,8 +3042,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="409575" y="257174"/>
-          <a:ext cx="16417925" cy="14258925"/>
+          <a:off x="409575" y="736600"/>
+          <a:ext cx="16417925" cy="13779499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3085,8 +3087,78 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>The Debt-Equity Model is an Excel spreadsheet for venture capital-funded startups.  This Model enables founders to model and track their company’s common stock grants, stock options, convertible notes, and SAFEs, visualize and anticipate how the convertible notes and SAFEs convert on a Series A, pre-money Series A valuation, and post-money Series A valuation, and understand the post-money Series A cap table for all equity holders, as well as exit or waterfall scenarios.  Founders can model option refreshes, dilution, and fully diluted capitalization, as well as conceptualize how much equity they will hang onto after a Series A financing.  The Model was created by angel investment firm, Blue Heron Ventures, for its own angel investments and has since been implemented as a proprietary tool by venture and startup law firm, O&amp;A, P.C.  The Model is intended for use prior to Carta or Capshare and will then enable the tracking of Carta’s and Capshare’s accuracy on a going forward basis.  Blue Heron Ventures is now open-sourcing the Debt-Equity Model under the creative commons license under CCO 1.0 http://creativecommons.org/publicdomain/zero/1.0/.  For more info https://www.startupcaptables.com</a:t>
+            <a:t>The Debt-Equity Model is an Excel spreadsheet for venture capital-funded startups.  This Model enables founders to model and track their company’s common stock grants, stock options, convertible notes, and SAFEs, visualize and anticipate how the convertible notes and SAFEs convert on a Series A, pre-money Series A valuation, and post-money Series A valuation, and understand the post-money Series A cap table for all equity holders, as well as exit or waterfall scenarios.  Founders can model option refreshes, dilution, and fully diluted capitalization, as well as conceptualize how much equity they will hang onto after a Series A financing.  The Model was created by angel investment firm, Blue Heron Ventures, for its own angel investments and has since been implemented as a proprietary tool by venture and startup law firm, O&amp;A, P.C.  The Model is intended for use prior to Carta or Capshare and will then enable the tracking of Carta’s and Capshare’s accuracy on a going forward basis.  Blue Heron Ventures is now open-sourcing the Debt-Equity Model under the creative commons license under CCO 1.0 http://creativecommons.org/publicdomain/zero/1.0/. </a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>If you'd</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> like assistance in making the decisions required to fill out this cap table, visit </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>https://www.startupprogram.com </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>to learn more about how Blue Heron Ventures and O&amp;A P.C. can help. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100">
@@ -3138,7 +3210,32 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>This workbook contains the complete Equity Debt Model.  These are the instructions to filling out the model.  There are 6 key tabs (listed in order as provided in the model):</a:t>
+            <a:t>This workbook contains the complete Equity Debt Model.  These are the instructions to filling out the model.  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>There are 6 key tabs (listed in order as provided in the model):</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4334,6 +4431,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F58C4735-2089-D84F-8FCA-B2766D51A739}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="406400" y="88900"/>
+          <a:ext cx="16408400" cy="520700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FEFFB8"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>NOTE: For the model to work correctly, you must have "iterative calculations" turned on in Excel.  Instruction on  how to check this are available here</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>:  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>https://oandapc.docsend.com/view/p9vuy92 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4643,7 +4836,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4672,12 +4865,12 @@
     <col min="8" max="8" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="42" t="s">
         <v>65</v>
       </c>
@@ -4769,7 +4962,7 @@
       </c>
       <c r="C4" s="75">
         <f ca="1">NOW()</f>
-        <v>43308.651387615741</v>
+        <v>43344.30641041667</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
@@ -4875,11 +5068,11 @@
       <c r="G9" s="48"/>
       <c r="H9" s="77">
         <f ca="1">(_xlfn.DAYS($C$4,K9)/365)*12</f>
-        <v>10.356164383561644</v>
+        <v>11.539726027397261</v>
       </c>
       <c r="I9" s="46">
         <f ca="1">IF(_xlfn.DAYS($C$4,K9)*(D9/(4*364))&gt;D9,D9,(_xlfn.DAYS($C$4,K9)*(D9/(4*365))))</f>
-        <v>863013.6986301369</v>
+        <v>961643.8356164383</v>
       </c>
       <c r="J9" s="46" t="str">
         <f t="shared" ref="J9" ca="1" si="1">IF(H9&gt;12,I9,"0")</f>
@@ -4913,11 +5106,11 @@
       <c r="G10" s="48"/>
       <c r="H10" s="77">
         <f t="shared" ref="H10:H18" ca="1" si="3">(_xlfn.DAYS($C$4,K10)/365)*12</f>
-        <v>10.356164383561644</v>
+        <v>11.539726027397261</v>
       </c>
       <c r="I10" s="46">
         <f t="shared" ref="I10:I18" ca="1" si="4">IF(_xlfn.DAYS($C$4,K10)*(D10/(4*364))&gt;D10,D10,(_xlfn.DAYS($C$4,K10)*(D10/(4*365))))</f>
-        <v>863013.6986301369</v>
+        <v>961643.8356164383</v>
       </c>
       <c r="J10" s="46" t="str">
         <f t="shared" ref="J10:J18" ca="1" si="5">IF(H10&gt;12,I10,"0")</f>
@@ -4951,11 +5144,11 @@
       <c r="G11" s="48"/>
       <c r="H11" s="77">
         <f t="shared" ca="1" si="3"/>
-        <v>10.356164383561644</v>
+        <v>11.539726027397261</v>
       </c>
       <c r="I11" s="46">
         <f t="shared" ca="1" si="4"/>
-        <v>215753.42465753423</v>
+        <v>240410.95890410958</v>
       </c>
       <c r="J11" s="46" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4989,7 +5182,7 @@
       <c r="G12" s="48"/>
       <c r="H12" s="77">
         <f t="shared" ca="1" si="3"/>
-        <v>10.356164383561644</v>
+        <v>11.539726027397261</v>
       </c>
       <c r="I12" s="46">
         <f t="shared" ca="1" si="4"/>
@@ -5027,7 +5220,7 @@
       <c r="G13" s="48"/>
       <c r="H13" s="77">
         <f t="shared" ca="1" si="3"/>
-        <v>10.356164383561644</v>
+        <v>11.539726027397261</v>
       </c>
       <c r="I13" s="46">
         <f t="shared" ca="1" si="4"/>
@@ -5065,7 +5258,7 @@
       <c r="G14" s="48"/>
       <c r="H14" s="77">
         <f t="shared" ref="H14:H17" ca="1" si="7">(_xlfn.DAYS($C$4,K14)/365)*12</f>
-        <v>10.356164383561644</v>
+        <v>11.539726027397261</v>
       </c>
       <c r="I14" s="46">
         <f t="shared" ref="I14:I17" ca="1" si="8">IF(_xlfn.DAYS($C$4,K14)*(D14/(4*364))&gt;D14,D14,(_xlfn.DAYS($C$4,K14)*(D14/(4*365))))</f>
@@ -5103,7 +5296,7 @@
       <c r="G15" s="48"/>
       <c r="H15" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>10.356164383561644</v>
+        <v>11.539726027397261</v>
       </c>
       <c r="I15" s="46">
         <f t="shared" ca="1" si="8"/>
@@ -5141,7 +5334,7 @@
       <c r="G16" s="48"/>
       <c r="H16" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>10.356164383561644</v>
+        <v>11.539726027397261</v>
       </c>
       <c r="I16" s="46">
         <f t="shared" ca="1" si="8"/>
@@ -5179,7 +5372,7 @@
       <c r="G17" s="48"/>
       <c r="H17" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>10.356164383561644</v>
+        <v>11.539726027397261</v>
       </c>
       <c r="I17" s="46">
         <f t="shared" ca="1" si="8"/>
@@ -5217,7 +5410,7 @@
       <c r="G18" s="48"/>
       <c r="H18" s="77">
         <f t="shared" ca="1" si="3"/>
-        <v>10.356164383561644</v>
+        <v>11.539726027397261</v>
       </c>
       <c r="I18" s="46">
         <f t="shared" ca="1" si="4"/>
@@ -5367,11 +5560,11 @@
       <c r="G24" s="48"/>
       <c r="H24" s="77">
         <f t="shared" ref="H24:H44" ca="1" si="12">(_xlfn.DAYS($C$4,K24)/365)*12</f>
-        <v>6.8054794520547945</v>
+        <v>7.9890410958904114</v>
       </c>
       <c r="I24" s="46">
         <f t="shared" ref="I24:I44" ca="1" si="13">IF(_xlfn.DAYS($C$4,K24)*(D24/(4*364))&gt;D24,D24,(_xlfn.DAYS($C$4,K24)*(D24/(4*365))))</f>
-        <v>17722.602739726026</v>
+        <v>20804.794520547945</v>
       </c>
       <c r="J24" s="46" t="str">
         <f t="shared" ref="J24:J44" ca="1" si="14">IF(H24&gt;12,I24,"0")</f>
@@ -5406,7 +5599,7 @@
       <c r="G25" s="48"/>
       <c r="H25" s="77">
         <f t="shared" ca="1" si="12"/>
-        <v>10.356164383561644</v>
+        <v>11.539726027397261</v>
       </c>
       <c r="I25" s="46">
         <f t="shared" ca="1" si="13"/>
@@ -5445,7 +5638,7 @@
       <c r="G26" s="48"/>
       <c r="H26" s="77">
         <f t="shared" ca="1" si="12"/>
-        <v>10.356164383561644</v>
+        <v>11.539726027397261</v>
       </c>
       <c r="I26" s="46">
         <f t="shared" ca="1" si="13"/>
@@ -5484,7 +5677,7 @@
       <c r="G27" s="48"/>
       <c r="H27" s="77">
         <f t="shared" ca="1" si="12"/>
-        <v>10.356164383561644</v>
+        <v>11.539726027397261</v>
       </c>
       <c r="I27" s="46">
         <f t="shared" ca="1" si="13"/>
@@ -5523,7 +5716,7 @@
       <c r="G28" s="48"/>
       <c r="H28" s="77">
         <f t="shared" ca="1" si="12"/>
-        <v>10.356164383561644</v>
+        <v>11.539726027397261</v>
       </c>
       <c r="I28" s="46">
         <f t="shared" ca="1" si="13"/>
@@ -5562,7 +5755,7 @@
       <c r="G29" s="48"/>
       <c r="H29" s="77">
         <f t="shared" ca="1" si="12"/>
-        <v>10.356164383561644</v>
+        <v>11.539726027397261</v>
       </c>
       <c r="I29" s="46">
         <f t="shared" ca="1" si="13"/>
@@ -5601,7 +5794,7 @@
       <c r="G30" s="48"/>
       <c r="H30" s="77">
         <f t="shared" ca="1" si="12"/>
-        <v>10.356164383561644</v>
+        <v>11.539726027397261</v>
       </c>
       <c r="I30" s="46">
         <f t="shared" ca="1" si="13"/>
@@ -5640,7 +5833,7 @@
       <c r="G31" s="48"/>
       <c r="H31" s="77">
         <f t="shared" ca="1" si="12"/>
-        <v>10.356164383561644</v>
+        <v>11.539726027397261</v>
       </c>
       <c r="I31" s="46">
         <f t="shared" ca="1" si="13"/>
@@ -5679,7 +5872,7 @@
       <c r="G32" s="48"/>
       <c r="H32" s="77">
         <f t="shared" ca="1" si="12"/>
-        <v>10.356164383561644</v>
+        <v>11.539726027397261</v>
       </c>
       <c r="I32" s="46">
         <f t="shared" ca="1" si="13"/>
@@ -5718,7 +5911,7 @@
       <c r="G33" s="48"/>
       <c r="H33" s="77">
         <f t="shared" ca="1" si="12"/>
-        <v>10.356164383561644</v>
+        <v>11.539726027397261</v>
       </c>
       <c r="I33" s="46">
         <f t="shared" ca="1" si="13"/>
@@ -5757,7 +5950,7 @@
       <c r="G34" s="48"/>
       <c r="H34" s="77">
         <f t="shared" ca="1" si="12"/>
-        <v>10.356164383561644</v>
+        <v>11.539726027397261</v>
       </c>
       <c r="I34" s="46">
         <f t="shared" ca="1" si="13"/>
@@ -5796,7 +5989,7 @@
       <c r="G35" s="48"/>
       <c r="H35" s="77">
         <f t="shared" ca="1" si="12"/>
-        <v>10.356164383561644</v>
+        <v>11.539726027397261</v>
       </c>
       <c r="I35" s="46">
         <f t="shared" ca="1" si="13"/>
@@ -5835,7 +6028,7 @@
       <c r="G36" s="48"/>
       <c r="H36" s="77">
         <f t="shared" ca="1" si="12"/>
-        <v>10.356164383561644</v>
+        <v>11.539726027397261</v>
       </c>
       <c r="I36" s="46">
         <f t="shared" ca="1" si="13"/>
@@ -5874,7 +6067,7 @@
       <c r="G37" s="48"/>
       <c r="H37" s="77">
         <f t="shared" ca="1" si="12"/>
-        <v>10.356164383561644</v>
+        <v>11.539726027397261</v>
       </c>
       <c r="I37" s="46">
         <f t="shared" ca="1" si="13"/>
@@ -5913,7 +6106,7 @@
       <c r="G38" s="48"/>
       <c r="H38" s="77">
         <f t="shared" ref="H38:H43" ca="1" si="16">(_xlfn.DAYS($C$4,K38)/365)*12</f>
-        <v>10.356164383561644</v>
+        <v>11.539726027397261</v>
       </c>
       <c r="I38" s="46">
         <f t="shared" ref="I38:I43" ca="1" si="17">IF(_xlfn.DAYS($C$4,K38)*(D38/(4*364))&gt;D38,D38,(_xlfn.DAYS($C$4,K38)*(D38/(4*365))))</f>
@@ -5952,7 +6145,7 @@
       <c r="G39" s="48"/>
       <c r="H39" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>10.356164383561644</v>
+        <v>11.539726027397261</v>
       </c>
       <c r="I39" s="46">
         <f t="shared" ca="1" si="17"/>
@@ -5991,7 +6184,7 @@
       <c r="G40" s="48"/>
       <c r="H40" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>10.356164383561644</v>
+        <v>11.539726027397261</v>
       </c>
       <c r="I40" s="46">
         <f t="shared" ca="1" si="17"/>
@@ -6030,7 +6223,7 @@
       <c r="G41" s="48"/>
       <c r="H41" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>10.356164383561644</v>
+        <v>11.539726027397261</v>
       </c>
       <c r="I41" s="46">
         <f t="shared" ca="1" si="17"/>
@@ -6069,7 +6262,7 @@
       <c r="G42" s="48"/>
       <c r="H42" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>10.356164383561644</v>
+        <v>11.539726027397261</v>
       </c>
       <c r="I42" s="46">
         <f t="shared" ca="1" si="17"/>
@@ -6108,7 +6301,7 @@
       <c r="G43" s="48"/>
       <c r="H43" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>10.356164383561644</v>
+        <v>11.539726027397261</v>
       </c>
       <c r="I43" s="46">
         <f t="shared" ca="1" si="17"/>
@@ -6147,7 +6340,7 @@
       <c r="G44" s="48"/>
       <c r="H44" s="77">
         <f t="shared" ca="1" si="12"/>
-        <v>10.356164383561644</v>
+        <v>11.539726027397261</v>
       </c>
       <c r="I44" s="46">
         <f t="shared" ca="1" si="13"/>
@@ -6338,7 +6531,7 @@
       <c r="J53" s="5"/>
       <c r="K53" s="84"/>
     </row>
-    <row r="54" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="80"/>
       <c r="B54" s="17"/>
       <c r="C54" s="279" t="s">
@@ -6431,7 +6624,7 @@
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
     </row>
-    <row r="60" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="86"/>
       <c r="B60" s="18"/>
       <c r="C60" s="40" t="s">
@@ -6571,7 +6764,7 @@
         <v>1.7616438066393469</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="99" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" s="99" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="229" t="s">
         <v>208</v>
       </c>
@@ -7989,7 +8182,7 @@
     <row r="5" spans="2:17" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="C5" s="150"/>
     </row>
-    <row r="6" spans="2:17" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" s="99" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="176"/>
       <c r="C6" s="177" t="s">
         <v>51</v>
@@ -8009,7 +8202,7 @@
       <c r="N6" s="339"/>
       <c r="O6" s="339"/>
     </row>
-    <row r="7" spans="2:17" s="99" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" s="99" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B7" s="155"/>
       <c r="C7" s="156" t="s">
         <v>15</v>
@@ -8481,7 +8674,7 @@
       </c>
       <c r="N25" s="202"/>
     </row>
-    <row r="26" spans="2:14" s="99" customFormat="1" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" s="99" customFormat="1" ht="65" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="329" t="s">
         <v>199</v>
       </c>
@@ -8616,7 +8809,7 @@
         <v>12625519.46153846</v>
       </c>
     </row>
-    <row r="35" spans="2:6" s="99" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" s="99" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B35" s="283" t="s">
         <v>182</v>
       </c>
@@ -10295,7 +10488,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="155"/>
       <c r="C7" s="156" t="s">
         <v>15</v>
@@ -10957,7 +11150,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="155"/>
       <c r="C7" s="156" t="s">
         <v>15</v>
@@ -11382,7 +11575,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="155"/>
       <c r="C7" s="156" t="s">
         <v>15</v>
@@ -12135,14 +12328,14 @@
     <col min="5" max="5" width="25.1640625" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="40"/>
       <c r="D1" s="40"/>
     </row>
-    <row r="4" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="42" t="s">
         <v>63</v>
       </c>

--- a/oa_debt_equity_model.xlsx
+++ b/oa_debt_equity_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hontzd/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Forms\Form Library\Cap Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BD9CBA-991B-D249-B2DA-FE08FE419A49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09F1EEEA-D84C-4CD3-82E9-71E39A2C5530}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="1080" windowWidth="28880" windowHeight="15640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8448" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTIONS - READ FIRST" sheetId="12" r:id="rId1"/>
@@ -47,11 +47,16 @@
     <definedName name="SerAPercent">'[1]Cap Table Ivan'!$C$36</definedName>
     <definedName name="SerAPrice">'[1]Cap Table Ivan'!$C$40</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="179021" iterate="1"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -4835,11 +4840,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4854,23 +4859,23 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="21.5" style="41" customWidth="1"/>
+    <col min="1" max="2" width="21.44140625" style="41" customWidth="1"/>
     <col min="3" max="3" width="18" style="41" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" style="41" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="41" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="41" customWidth="1"/>
     <col min="6" max="6" width="23" style="41" customWidth="1"/>
-    <col min="7" max="7" width="22.5" style="41" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" style="41" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>65</v>
       </c>
@@ -4896,19 +4901,19 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D5" s="43"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D6" s="43"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" s="43"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D8" s="43"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D9" s="43"/>
       <c r="H9" s="43"/>
     </row>
@@ -4929,40 +4934,40 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" style="27" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="7" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="10" customWidth="1"/>
-    <col min="8" max="9" width="15.5" style="10" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" style="10" customWidth="1"/>
+    <col min="8" max="9" width="15.44140625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
     <col min="11" max="11" width="10.6640625" customWidth="1"/>
     <col min="12" max="12" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="337" t="s">
         <v>75</v>
       </c>
       <c r="B1" s="25"/>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>201</v>
       </c>
       <c r="B2" s="25"/>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="75">
         <f ca="1">NOW()</f>
-        <v>43344.30641041667</v>
+        <v>43396.77048078704</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
@@ -4973,7 +4978,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="D5" s="5"/>
       <c r="E5" s="27"/>
@@ -4982,7 +4987,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="76"/>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>71</v>
       </c>
@@ -4994,7 +4999,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="C7" s="88"/>
       <c r="D7" s="5"/>
@@ -5007,7 +5012,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
         <v>9</v>
       </c>
@@ -5045,7 +5050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -5068,21 +5073,21 @@
       <c r="G9" s="48"/>
       <c r="H9" s="77">
         <f ca="1">(_xlfn.DAYS($C$4,K9)/365)*12</f>
-        <v>11.539726027397261</v>
+        <v>13.24931506849315</v>
       </c>
       <c r="I9" s="46">
         <f ca="1">IF(_xlfn.DAYS($C$4,K9)*(D9/(4*364))&gt;D9,D9,(_xlfn.DAYS($C$4,K9)*(D9/(4*365))))</f>
-        <v>961643.8356164383</v>
-      </c>
-      <c r="J9" s="46" t="str">
+        <v>1104109.5890410959</v>
+      </c>
+      <c r="J9" s="46">
         <f t="shared" ref="J9" ca="1" si="1">IF(H9&gt;12,I9,"0")</f>
-        <v>0</v>
+        <v>1104109.5890410959</v>
       </c>
       <c r="K9" s="64">
         <v>42993</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -5106,21 +5111,21 @@
       <c r="G10" s="48"/>
       <c r="H10" s="77">
         <f t="shared" ref="H10:H18" ca="1" si="3">(_xlfn.DAYS($C$4,K10)/365)*12</f>
-        <v>11.539726027397261</v>
+        <v>13.24931506849315</v>
       </c>
       <c r="I10" s="46">
         <f t="shared" ref="I10:I18" ca="1" si="4">IF(_xlfn.DAYS($C$4,K10)*(D10/(4*364))&gt;D10,D10,(_xlfn.DAYS($C$4,K10)*(D10/(4*365))))</f>
-        <v>961643.8356164383</v>
-      </c>
-      <c r="J10" s="46" t="str">
+        <v>1104109.5890410959</v>
+      </c>
+      <c r="J10" s="46">
         <f t="shared" ref="J10:J18" ca="1" si="5">IF(H10&gt;12,I10,"0")</f>
-        <v>0</v>
+        <v>1104109.5890410959</v>
       </c>
       <c r="K10" s="64">
         <v>42993</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -5144,21 +5149,21 @@
       <c r="G11" s="48"/>
       <c r="H11" s="77">
         <f t="shared" ca="1" si="3"/>
-        <v>11.539726027397261</v>
+        <v>13.24931506849315</v>
       </c>
       <c r="I11" s="46">
         <f t="shared" ca="1" si="4"/>
-        <v>240410.95890410958</v>
-      </c>
-      <c r="J11" s="46" t="str">
+        <v>276027.39726027398</v>
+      </c>
+      <c r="J11" s="46">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>276027.39726027398</v>
       </c>
       <c r="K11" s="64">
         <v>42993</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>4</v>
       </c>
@@ -5182,13 +5187,13 @@
       <c r="G12" s="48"/>
       <c r="H12" s="77">
         <f t="shared" ca="1" si="3"/>
-        <v>11.539726027397261</v>
+        <v>13.24931506849315</v>
       </c>
       <c r="I12" s="46">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="J12" s="46" t="str">
+      <c r="J12" s="46">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
@@ -5196,7 +5201,7 @@
         <v>42993</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>5</v>
       </c>
@@ -5220,13 +5225,13 @@
       <c r="G13" s="48"/>
       <c r="H13" s="77">
         <f t="shared" ca="1" si="3"/>
-        <v>11.539726027397261</v>
+        <v>13.24931506849315</v>
       </c>
       <c r="I13" s="46">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="J13" s="46" t="str">
+      <c r="J13" s="46">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
@@ -5234,7 +5239,7 @@
         <v>42993</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>6</v>
       </c>
@@ -5258,13 +5263,13 @@
       <c r="G14" s="48"/>
       <c r="H14" s="77">
         <f t="shared" ref="H14:H17" ca="1" si="7">(_xlfn.DAYS($C$4,K14)/365)*12</f>
-        <v>11.539726027397261</v>
+        <v>13.24931506849315</v>
       </c>
       <c r="I14" s="46">
         <f t="shared" ref="I14:I17" ca="1" si="8">IF(_xlfn.DAYS($C$4,K14)*(D14/(4*364))&gt;D14,D14,(_xlfn.DAYS($C$4,K14)*(D14/(4*365))))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="46" t="str">
+      <c r="J14" s="46">
         <f t="shared" ref="J14:J17" ca="1" si="9">IF(H14&gt;12,I14,"0")</f>
         <v>0</v>
       </c>
@@ -5272,7 +5277,7 @@
         <v>42993</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>7</v>
       </c>
@@ -5296,13 +5301,13 @@
       <c r="G15" s="48"/>
       <c r="H15" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>11.539726027397261</v>
+        <v>13.24931506849315</v>
       </c>
       <c r="I15" s="46">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="J15" s="46" t="str">
+      <c r="J15" s="46">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
@@ -5310,7 +5315,7 @@
         <v>42993</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>8</v>
       </c>
@@ -5334,13 +5339,13 @@
       <c r="G16" s="48"/>
       <c r="H16" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>11.539726027397261</v>
+        <v>13.24931506849315</v>
       </c>
       <c r="I16" s="46">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="J16" s="46" t="str">
+      <c r="J16" s="46">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
@@ -5348,7 +5353,7 @@
         <v>42993</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>9</v>
       </c>
@@ -5372,13 +5377,13 @@
       <c r="G17" s="48"/>
       <c r="H17" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>11.539726027397261</v>
+        <v>13.24931506849315</v>
       </c>
       <c r="I17" s="46">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="J17" s="46" t="str">
+      <c r="J17" s="46">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
@@ -5386,7 +5391,7 @@
         <v>42993</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>10</v>
       </c>
@@ -5410,13 +5415,13 @@
       <c r="G18" s="48"/>
       <c r="H18" s="77">
         <f t="shared" ca="1" si="3"/>
-        <v>11.539726027397261</v>
+        <v>13.24931506849315</v>
       </c>
       <c r="I18" s="46">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="J18" s="46" t="str">
+      <c r="J18" s="46">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
@@ -5424,7 +5429,7 @@
         <v>42993</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="90"/>
       <c r="D19" s="46"/>
@@ -5436,7 +5441,7 @@
       <c r="J19" s="46"/>
       <c r="K19" s="78"/>
     </row>
-    <row r="20" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="11" t="s">
         <v>3</v>
       </c>
@@ -5459,11 +5464,11 @@
       <c r="I20" s="79"/>
       <c r="J20" s="54">
         <f ca="1">SUM(J9:J18)</f>
-        <v>0</v>
+        <v>2484246.5753424657</v>
       </c>
       <c r="K20" s="78"/>
     </row>
-    <row r="21" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="18"/>
       <c r="C21" s="92"/>
       <c r="D21" s="37"/>
@@ -5475,7 +5480,7 @@
       <c r="J21" s="37"/>
       <c r="K21" s="78"/>
     </row>
-    <row r="22" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="19" t="s">
         <v>43</v>
       </c>
@@ -5511,7 +5516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="80"/>
       <c r="B23" s="247" t="s">
         <v>72</v>
@@ -5536,7 +5541,7 @@
       <c r="J23" s="46"/>
       <c r="K23" s="49"/>
     </row>
-    <row r="24" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="80">
         <v>1</v>
       </c>
@@ -5560,11 +5565,11 @@
       <c r="G24" s="48"/>
       <c r="H24" s="77">
         <f t="shared" ref="H24:H44" ca="1" si="12">(_xlfn.DAYS($C$4,K24)/365)*12</f>
-        <v>7.9890410958904114</v>
+        <v>9.6986301369863011</v>
       </c>
       <c r="I24" s="46">
         <f t="shared" ref="I24:I44" ca="1" si="13">IF(_xlfn.DAYS($C$4,K24)*(D24/(4*364))&gt;D24,D24,(_xlfn.DAYS($C$4,K24)*(D24/(4*365))))</f>
-        <v>20804.794520547945</v>
+        <v>25256.849315068492</v>
       </c>
       <c r="J24" s="46" t="str">
         <f t="shared" ref="J24:J44" ca="1" si="14">IF(H24&gt;12,I24,"0")</f>
@@ -5575,7 +5580,7 @@
       </c>
       <c r="L24" s="81"/>
     </row>
-    <row r="25" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="80">
         <v>2</v>
       </c>
@@ -5599,13 +5604,13 @@
       <c r="G25" s="48"/>
       <c r="H25" s="77">
         <f t="shared" ca="1" si="12"/>
-        <v>11.539726027397261</v>
+        <v>13.24931506849315</v>
       </c>
       <c r="I25" s="46">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="J25" s="46" t="str">
+      <c r="J25" s="46">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
@@ -5614,7 +5619,7 @@
       </c>
       <c r="L25" s="81"/>
     </row>
-    <row r="26" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="80">
         <v>3</v>
       </c>
@@ -5638,13 +5643,13 @@
       <c r="G26" s="48"/>
       <c r="H26" s="77">
         <f t="shared" ca="1" si="12"/>
-        <v>11.539726027397261</v>
+        <v>13.24931506849315</v>
       </c>
       <c r="I26" s="46">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="J26" s="46" t="str">
+      <c r="J26" s="46">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
@@ -5653,7 +5658,7 @@
       </c>
       <c r="L26" s="81"/>
     </row>
-    <row r="27" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="80">
         <v>4</v>
       </c>
@@ -5677,13 +5682,13 @@
       <c r="G27" s="48"/>
       <c r="H27" s="77">
         <f t="shared" ca="1" si="12"/>
-        <v>11.539726027397261</v>
+        <v>13.24931506849315</v>
       </c>
       <c r="I27" s="46">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="J27" s="46" t="str">
+      <c r="J27" s="46">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
@@ -5692,7 +5697,7 @@
       </c>
       <c r="L27" s="81"/>
     </row>
-    <row r="28" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="80">
         <v>5</v>
       </c>
@@ -5716,13 +5721,13 @@
       <c r="G28" s="48"/>
       <c r="H28" s="77">
         <f t="shared" ca="1" si="12"/>
-        <v>11.539726027397261</v>
+        <v>13.24931506849315</v>
       </c>
       <c r="I28" s="46">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="J28" s="46" t="str">
+      <c r="J28" s="46">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
@@ -5731,7 +5736,7 @@
       </c>
       <c r="L28" s="81"/>
     </row>
-    <row r="29" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="80">
         <v>6</v>
       </c>
@@ -5755,13 +5760,13 @@
       <c r="G29" s="48"/>
       <c r="H29" s="77">
         <f t="shared" ca="1" si="12"/>
-        <v>11.539726027397261</v>
+        <v>13.24931506849315</v>
       </c>
       <c r="I29" s="46">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="J29" s="46" t="str">
+      <c r="J29" s="46">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
@@ -5770,7 +5775,7 @@
       </c>
       <c r="L29" s="81"/>
     </row>
-    <row r="30" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="80">
         <v>7</v>
       </c>
@@ -5794,13 +5799,13 @@
       <c r="G30" s="48"/>
       <c r="H30" s="77">
         <f t="shared" ca="1" si="12"/>
-        <v>11.539726027397261</v>
+        <v>13.24931506849315</v>
       </c>
       <c r="I30" s="46">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="J30" s="46" t="str">
+      <c r="J30" s="46">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
@@ -5809,7 +5814,7 @@
       </c>
       <c r="L30" s="81"/>
     </row>
-    <row r="31" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="80">
         <v>8</v>
       </c>
@@ -5833,13 +5838,13 @@
       <c r="G31" s="48"/>
       <c r="H31" s="77">
         <f t="shared" ca="1" si="12"/>
-        <v>11.539726027397261</v>
+        <v>13.24931506849315</v>
       </c>
       <c r="I31" s="46">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="J31" s="46" t="str">
+      <c r="J31" s="46">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
@@ -5848,7 +5853,7 @@
       </c>
       <c r="L31" s="81"/>
     </row>
-    <row r="32" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="80">
         <v>9</v>
       </c>
@@ -5872,13 +5877,13 @@
       <c r="G32" s="48"/>
       <c r="H32" s="77">
         <f t="shared" ca="1" si="12"/>
-        <v>11.539726027397261</v>
+        <v>13.24931506849315</v>
       </c>
       <c r="I32" s="46">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="J32" s="46" t="str">
+      <c r="J32" s="46">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
@@ -5887,7 +5892,7 @@
       </c>
       <c r="L32" s="81"/>
     </row>
-    <row r="33" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="80">
         <v>10</v>
       </c>
@@ -5911,13 +5916,13 @@
       <c r="G33" s="48"/>
       <c r="H33" s="77">
         <f t="shared" ca="1" si="12"/>
-        <v>11.539726027397261</v>
+        <v>13.24931506849315</v>
       </c>
       <c r="I33" s="46">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="J33" s="46" t="str">
+      <c r="J33" s="46">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
@@ -5926,7 +5931,7 @@
       </c>
       <c r="L33" s="81"/>
     </row>
-    <row r="34" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="80">
         <v>11</v>
       </c>
@@ -5950,13 +5955,13 @@
       <c r="G34" s="48"/>
       <c r="H34" s="77">
         <f t="shared" ca="1" si="12"/>
-        <v>11.539726027397261</v>
+        <v>13.24931506849315</v>
       </c>
       <c r="I34" s="46">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="J34" s="46" t="str">
+      <c r="J34" s="46">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
@@ -5965,7 +5970,7 @@
       </c>
       <c r="L34" s="81"/>
     </row>
-    <row r="35" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="80">
         <v>12</v>
       </c>
@@ -5989,13 +5994,13 @@
       <c r="G35" s="48"/>
       <c r="H35" s="77">
         <f t="shared" ca="1" si="12"/>
-        <v>11.539726027397261</v>
+        <v>13.24931506849315</v>
       </c>
       <c r="I35" s="46">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="J35" s="46" t="str">
+      <c r="J35" s="46">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
@@ -6004,7 +6009,7 @@
       </c>
       <c r="L35" s="81"/>
     </row>
-    <row r="36" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="80">
         <v>13</v>
       </c>
@@ -6028,13 +6033,13 @@
       <c r="G36" s="48"/>
       <c r="H36" s="77">
         <f t="shared" ca="1" si="12"/>
-        <v>11.539726027397261</v>
+        <v>13.24931506849315</v>
       </c>
       <c r="I36" s="46">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="J36" s="46" t="str">
+      <c r="J36" s="46">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
@@ -6043,7 +6048,7 @@
       </c>
       <c r="L36" s="81"/>
     </row>
-    <row r="37" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="80">
         <v>14</v>
       </c>
@@ -6067,13 +6072,13 @@
       <c r="G37" s="48"/>
       <c r="H37" s="77">
         <f t="shared" ca="1" si="12"/>
-        <v>11.539726027397261</v>
+        <v>13.24931506849315</v>
       </c>
       <c r="I37" s="46">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="J37" s="46" t="str">
+      <c r="J37" s="46">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
@@ -6082,7 +6087,7 @@
       </c>
       <c r="L37" s="81"/>
     </row>
-    <row r="38" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="80">
         <v>15</v>
       </c>
@@ -6106,13 +6111,13 @@
       <c r="G38" s="48"/>
       <c r="H38" s="77">
         <f t="shared" ref="H38:H43" ca="1" si="16">(_xlfn.DAYS($C$4,K38)/365)*12</f>
-        <v>11.539726027397261</v>
+        <v>13.24931506849315</v>
       </c>
       <c r="I38" s="46">
         <f t="shared" ref="I38:I43" ca="1" si="17">IF(_xlfn.DAYS($C$4,K38)*(D38/(4*364))&gt;D38,D38,(_xlfn.DAYS($C$4,K38)*(D38/(4*365))))</f>
         <v>0</v>
       </c>
-      <c r="J38" s="46" t="str">
+      <c r="J38" s="46">
         <f t="shared" ref="J38:J43" ca="1" si="18">IF(H38&gt;12,I38,"0")</f>
         <v>0</v>
       </c>
@@ -6121,7 +6126,7 @@
       </c>
       <c r="L38" s="81"/>
     </row>
-    <row r="39" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="80">
         <v>16</v>
       </c>
@@ -6145,13 +6150,13 @@
       <c r="G39" s="48"/>
       <c r="H39" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>11.539726027397261</v>
+        <v>13.24931506849315</v>
       </c>
       <c r="I39" s="46">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="J39" s="46" t="str">
+      <c r="J39" s="46">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
@@ -6160,7 +6165,7 @@
       </c>
       <c r="L39" s="81"/>
     </row>
-    <row r="40" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="80">
         <v>17</v>
       </c>
@@ -6184,13 +6189,13 @@
       <c r="G40" s="48"/>
       <c r="H40" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>11.539726027397261</v>
+        <v>13.24931506849315</v>
       </c>
       <c r="I40" s="46">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="J40" s="46" t="str">
+      <c r="J40" s="46">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
@@ -6199,7 +6204,7 @@
       </c>
       <c r="L40" s="81"/>
     </row>
-    <row r="41" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="80">
         <v>18</v>
       </c>
@@ -6223,13 +6228,13 @@
       <c r="G41" s="48"/>
       <c r="H41" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>11.539726027397261</v>
+        <v>13.24931506849315</v>
       </c>
       <c r="I41" s="46">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="J41" s="46" t="str">
+      <c r="J41" s="46">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
@@ -6238,7 +6243,7 @@
       </c>
       <c r="L41" s="81"/>
     </row>
-    <row r="42" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="80">
         <v>19</v>
       </c>
@@ -6262,13 +6267,13 @@
       <c r="G42" s="48"/>
       <c r="H42" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>11.539726027397261</v>
+        <v>13.24931506849315</v>
       </c>
       <c r="I42" s="46">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="J42" s="46" t="str">
+      <c r="J42" s="46">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
@@ -6277,7 +6282,7 @@
       </c>
       <c r="L42" s="81"/>
     </row>
-    <row r="43" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="80">
         <v>20</v>
       </c>
@@ -6301,13 +6306,13 @@
       <c r="G43" s="48"/>
       <c r="H43" s="77">
         <f t="shared" ca="1" si="16"/>
-        <v>11.539726027397261</v>
+        <v>13.24931506849315</v>
       </c>
       <c r="I43" s="46">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="J43" s="46" t="str">
+      <c r="J43" s="46">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
@@ -6316,7 +6321,7 @@
       </c>
       <c r="L43" s="81"/>
     </row>
-    <row r="44" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="80">
         <v>21</v>
       </c>
@@ -6340,13 +6345,13 @@
       <c r="G44" s="48"/>
       <c r="H44" s="77">
         <f t="shared" ca="1" si="12"/>
-        <v>11.539726027397261</v>
+        <v>13.24931506849315</v>
       </c>
       <c r="I44" s="46">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="J44" s="46" t="str">
+      <c r="J44" s="46">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
@@ -6355,7 +6360,7 @@
       </c>
       <c r="L44" s="81"/>
     </row>
-    <row r="45" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="80"/>
       <c r="B45" s="17"/>
       <c r="C45" s="93"/>
@@ -6369,7 +6374,7 @@
       <c r="K45" s="58"/>
       <c r="L45" s="81"/>
     </row>
-    <row r="46" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="80"/>
       <c r="B46" s="82"/>
       <c r="C46" s="94" t="s">
@@ -6396,7 +6401,7 @@
       </c>
       <c r="K46" s="58"/>
     </row>
-    <row r="47" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="80"/>
       <c r="B47" s="17"/>
       <c r="C47" s="88" t="s">
@@ -6420,7 +6425,7 @@
       <c r="J47" s="46"/>
       <c r="K47" s="58"/>
     </row>
-    <row r="48" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="80"/>
       <c r="B48" s="17"/>
       <c r="C48" s="90" t="s">
@@ -6441,7 +6446,7 @@
       <c r="J48" s="5"/>
       <c r="K48" s="84"/>
     </row>
-    <row r="49" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="80"/>
       <c r="B49" s="17"/>
       <c r="C49" s="90"/>
@@ -6455,7 +6460,7 @@
       <c r="K49" s="84"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="80"/>
       <c r="B50" s="17"/>
       <c r="C50" s="90" t="s">
@@ -6479,7 +6484,7 @@
       <c r="K50" s="84"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="80"/>
       <c r="B51" s="17"/>
       <c r="C51" s="90"/>
@@ -6493,7 +6498,7 @@
       <c r="K51" s="84"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="80"/>
       <c r="B52" s="17"/>
       <c r="C52" s="95" t="s">
@@ -6501,7 +6506,7 @@
       </c>
       <c r="D52" s="5">
         <f ca="1">'Pro Forma - Series A Inputs'!G8+'Pro Forma - Series A Inputs'!G9+'Pro Forma - Series A Inputs'!G10+'Pro Forma - Series A Inputs'!G13+'Pro Forma - Series A Inputs'!G14</f>
-        <v>13500519.46153846</v>
+        <v>13500519.461538259</v>
       </c>
       <c r="E52" s="28"/>
       <c r="H52" s="83"/>
@@ -6509,7 +6514,7 @@
       <c r="J52" s="5"/>
       <c r="K52" s="84"/>
     </row>
-    <row r="53" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="80"/>
       <c r="B53" s="17"/>
       <c r="C53" s="95" t="s">
@@ -6517,7 +6522,7 @@
       </c>
       <c r="D53" s="263">
         <f ca="1">D52-D47</f>
-        <v>12625519.46153846</v>
+        <v>12625519.461538259</v>
       </c>
       <c r="E53" s="28"/>
       <c r="F53" s="31" t="s">
@@ -6531,7 +6536,7 @@
       <c r="J53" s="5"/>
       <c r="K53" s="84"/>
     </row>
-    <row r="54" spans="1:12" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="80"/>
       <c r="B54" s="17"/>
       <c r="C54" s="279" t="s">
@@ -6539,7 +6544,7 @@
       </c>
       <c r="D54" s="265">
         <f ca="1">D53/(1-D50)</f>
-        <v>14853552.307692306</v>
+        <v>14853552.30769207</v>
       </c>
       <c r="E54" s="255"/>
       <c r="F54" s="31" t="s">
@@ -6554,7 +6559,7 @@
       <c r="J54" s="5"/>
       <c r="K54" s="84"/>
     </row>
-    <row r="55" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="80"/>
       <c r="B55" s="17"/>
       <c r="D55" s="5"/>
@@ -6566,7 +6571,7 @@
       <c r="J55" s="5"/>
       <c r="K55" s="84"/>
     </row>
-    <row r="56" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="80"/>
       <c r="B56" s="17"/>
       <c r="C56" s="96" t="s">
@@ -6574,7 +6579,7 @@
       </c>
       <c r="D56" s="69">
         <f ca="1">MAX(D54-D52,0)</f>
-        <v>1353032.846153846</v>
+        <v>1353032.8461538106</v>
       </c>
       <c r="E56" s="28"/>
       <c r="F56" s="31"/>
@@ -6584,7 +6589,7 @@
       <c r="J56" s="5"/>
       <c r="K56" s="84"/>
     </row>
-    <row r="57" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="80"/>
       <c r="B57" s="17"/>
       <c r="C57" s="97"/>
@@ -6597,7 +6602,7 @@
       <c r="J57" s="5"/>
       <c r="K57" s="84"/>
     </row>
-    <row r="58" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="80"/>
       <c r="B58" s="17"/>
       <c r="C58" s="87" t="s">
@@ -6605,7 +6610,7 @@
       </c>
       <c r="D58" s="16">
         <f ca="1">D50-SUM('Pro Forma - Series A Inputs'!K10:K11)</f>
-        <v>0</v>
+        <v>-6.6335825721353103E-15</v>
       </c>
       <c r="E58" s="27"/>
       <c r="F58" s="7"/>
@@ -6615,7 +6620,7 @@
       <c r="J58" s="5"/>
       <c r="K58" s="84"/>
     </row>
-    <row r="59" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="D59" s="5"/>
       <c r="E59" s="27"/>
@@ -6624,7 +6629,7 @@
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
     </row>
-    <row r="60" spans="1:12" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="86"/>
       <c r="B60" s="18"/>
       <c r="C60" s="40" t="s">
@@ -6632,7 +6637,7 @@
       </c>
       <c r="D60" s="5">
         <f ca="1">+D56+D48</f>
-        <v>11353032.846153846</v>
+        <v>11353032.846153811</v>
       </c>
       <c r="E60" s="27"/>
       <c r="F60" s="7"/>
@@ -6642,7 +6647,7 @@
       <c r="J60" s="87"/>
       <c r="K60" s="87"/>
     </row>
-    <row r="61" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="87"/>
       <c r="B61" s="18"/>
       <c r="D61" s="5"/>
@@ -6654,7 +6659,7 @@
       <c r="J61" s="87"/>
       <c r="K61" s="87"/>
     </row>
-    <row r="62" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="35"/>
       <c r="B62" s="34"/>
       <c r="D62" s="5"/>
@@ -6666,7 +6671,7 @@
       <c r="J62" s="87"/>
       <c r="K62" s="87"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="33"/>
       <c r="B63" s="18"/>
       <c r="H63" s="32"/>
@@ -6674,7 +6679,7 @@
       <c r="J63" s="33"/>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="33"/>
       <c r="B64" s="18"/>
       <c r="C64" s="33"/>
@@ -6684,7 +6689,7 @@
       <c r="J64" s="33"/>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="33"/>
       <c r="B65" s="18"/>
       <c r="C65" s="33"/>
@@ -6711,60 +6716,60 @@
   </sheetPr>
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="21" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="21" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="21" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="21" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="21" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" style="21" customWidth="1"/>
     <col min="11" max="11" width="11.33203125" style="21" customWidth="1"/>
     <col min="12" max="12" width="18.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="21" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" style="21" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" style="21" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="21" customWidth="1"/>
     <col min="15" max="15" width="11.33203125" style="21" customWidth="1"/>
-    <col min="16" max="16" width="16.1640625" style="21" customWidth="1"/>
-    <col min="17" max="17" width="12.5" style="21" customWidth="1"/>
-    <col min="18" max="18" width="13.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.109375" style="21" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" style="21" customWidth="1"/>
+    <col min="18" max="18" width="13.109375" style="21" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="8.6640625" style="21"/>
     <col min="22" max="22" width="0" style="21" hidden="1" customWidth="1"/>
     <col min="23" max="16384" width="8.6640625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.4">
       <c r="I1" s="59" t="str">
         <f>Common!A1</f>
         <v>TBD, Inc.</v>
       </c>
       <c r="J1" s="25"/>
     </row>
-    <row r="2" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I2" s="36" t="s">
         <v>54</v>
       </c>
       <c r="J2" s="25"/>
     </row>
-    <row r="3" spans="1:22" s="99" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="99" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I3" s="127"/>
       <c r="L3" s="227" t="s">
         <v>90</v>
       </c>
       <c r="M3" s="228">
         <f ca="1">'Pro Forma - Series A Inputs'!F25</f>
-        <v>1.7616438066393469</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="99" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+        <v>1.7616438066393718</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="99" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="229" t="s">
         <v>208</v>
       </c>
@@ -6816,7 +6821,7 @@
         <v>0.94968484233664641</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="231" t="s">
         <v>131</v>
       </c>
@@ -6852,18 +6857,18 @@
       </c>
       <c r="K5" s="219">
         <f ca="1">+Common!$D$60</f>
-        <v>11353032.846153846</v>
+        <v>11353032.846153811</v>
       </c>
       <c r="L5" s="220">
         <f t="shared" ref="L5" ca="1" si="0">(J5/K5)</f>
-        <v>0.26424657099590204</v>
+        <v>0.26424657099590287</v>
       </c>
       <c r="M5" s="186">
         <f ca="1">(1-I5)*$M$3</f>
-        <v>1.4093150453114776</v>
+        <v>1.4093150453114975</v>
       </c>
       <c r="N5" s="221">
-        <f ca="1">ROUNDUP(((H5/MIN(L5,M5))),0)</f>
+        <f ca="1">IF(L5&gt;0,ROUNDUP(((H5/MIN(L5,M5))),0),H5/M5)</f>
         <v>75687</v>
       </c>
       <c r="O5" s="222">
@@ -6878,7 +6883,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="231" t="s">
         <v>132</v>
       </c>
@@ -6914,18 +6919,18 @@
       </c>
       <c r="K6" s="219">
         <f ca="1">+Common!$D$60</f>
-        <v>11353032.846153846</v>
+        <v>11353032.846153811</v>
       </c>
       <c r="L6" s="220">
         <f t="shared" ref="L6:L20" ca="1" si="4">(J6/K6)</f>
-        <v>0.44041095165983674</v>
+        <v>0.44041095165983807</v>
       </c>
       <c r="M6" s="186">
         <f t="shared" ref="M6:M24" ca="1" si="5">(1-I6)*$M$3</f>
-        <v>1.4093150453114776</v>
+        <v>1.4093150453114975</v>
       </c>
       <c r="N6" s="221">
-        <f ca="1">ROUNDUP(((H6/MIN(L6,M6))),0)</f>
+        <f ca="1">IF(L6&gt;0,ROUNDUP(((H6/MIN(L6,M6))),0),H6/M6)</f>
         <v>454122</v>
       </c>
       <c r="O6" s="222">
@@ -6940,7 +6945,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="231" t="s">
         <v>133</v>
       </c>
@@ -6976,18 +6981,18 @@
       </c>
       <c r="K7" s="219">
         <f ca="1">+Common!$D$60</f>
-        <v>11353032.846153846</v>
+        <v>11353032.846153811</v>
       </c>
       <c r="L7" s="220">
         <f t="shared" ref="L7" ca="1" si="7">(J7/K7)</f>
-        <v>0.26424657099590204</v>
+        <v>0.26424657099590287</v>
       </c>
       <c r="M7" s="186">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4093150453114776</v>
+        <v>1.4093150453114975</v>
       </c>
       <c r="N7" s="221">
-        <f t="shared" ref="N7" ca="1" si="8">ROUNDUP(((H7/MIN(L7,M7))),0)</f>
+        <f ca="1">IF(L7&gt;0,ROUNDUP(((H7/MIN(L7,M7))),0),H7/M7)</f>
         <v>0</v>
       </c>
       <c r="O7" s="222">
@@ -6999,7 +7004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="231" t="s">
         <v>134</v>
       </c>
@@ -7035,18 +7040,18 @@
       </c>
       <c r="K8" s="219">
         <f ca="1">+Common!$D$60</f>
-        <v>11353032.846153846</v>
+        <v>11353032.846153811</v>
       </c>
       <c r="L8" s="220">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26424657099590204</v>
+        <v>0.26424657099590287</v>
       </c>
       <c r="M8" s="186">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4093150453114776</v>
+        <v>1.4093150453114975</v>
       </c>
       <c r="N8" s="221">
-        <f t="shared" ref="N8:N20" ca="1" si="9">ROUNDUP(((H8/MIN(L8,M8))),0)</f>
+        <f ca="1">IF(L8&gt;0,ROUNDUP(((H8/MIN(L8,M8))),0),H8/M8)</f>
         <v>0</v>
       </c>
       <c r="O8" s="222">
@@ -7058,7 +7063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="231" t="s">
         <v>135</v>
       </c>
@@ -7094,18 +7099,18 @@
       </c>
       <c r="K9" s="219">
         <f ca="1">+Common!$D$60</f>
-        <v>11353032.846153846</v>
+        <v>11353032.846153811</v>
       </c>
       <c r="L9" s="220">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26424657099590204</v>
+        <v>0.26424657099590287</v>
       </c>
       <c r="M9" s="186">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4093150453114776</v>
+        <v>1.4093150453114975</v>
       </c>
       <c r="N9" s="221">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(L9&gt;0,ROUNDUP(((H9/MIN(L9,M9))),0),H9/M9)</f>
         <v>0</v>
       </c>
       <c r="O9" s="222">
@@ -7117,7 +7122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="231" t="s">
         <v>136</v>
       </c>
@@ -7153,18 +7158,18 @@
       </c>
       <c r="K10" s="219">
         <f ca="1">+Common!$D$60</f>
-        <v>11353032.846153846</v>
+        <v>11353032.846153811</v>
       </c>
       <c r="L10" s="220">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26424657099590204</v>
+        <v>0.26424657099590287</v>
       </c>
       <c r="M10" s="186">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4093150453114776</v>
+        <v>1.4093150453114975</v>
       </c>
       <c r="N10" s="221">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(L10&gt;0,ROUNDUP(((H10/MIN(L10,M10))),0),H10/M10)</f>
         <v>0</v>
       </c>
       <c r="O10" s="222">
@@ -7176,7 +7181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="231" t="s">
         <v>137</v>
       </c>
@@ -7212,18 +7217,18 @@
       </c>
       <c r="K11" s="219">
         <f ca="1">+Common!$D$60</f>
-        <v>11353032.846153846</v>
+        <v>11353032.846153811</v>
       </c>
       <c r="L11" s="220">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26424657099590204</v>
+        <v>0.26424657099590287</v>
       </c>
       <c r="M11" s="186">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4093150453114776</v>
+        <v>1.4093150453114975</v>
       </c>
       <c r="N11" s="221">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(L11&gt;0,ROUNDUP(((H11/MIN(L11,M11))),0),H11/M11)</f>
         <v>0</v>
       </c>
       <c r="O11" s="222">
@@ -7235,7 +7240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="231" t="s">
         <v>138</v>
       </c>
@@ -7271,18 +7276,18 @@
       </c>
       <c r="K12" s="219">
         <f ca="1">+Common!$D$60</f>
-        <v>11353032.846153846</v>
+        <v>11353032.846153811</v>
       </c>
       <c r="L12" s="220">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26424657099590204</v>
+        <v>0.26424657099590287</v>
       </c>
       <c r="M12" s="186">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4093150453114776</v>
+        <v>1.4093150453114975</v>
       </c>
       <c r="N12" s="221">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(L12&gt;0,ROUNDUP(((H12/MIN(L12,M12))),0),H12/M12)</f>
         <v>0</v>
       </c>
       <c r="O12" s="222">
@@ -7294,7 +7299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="231" t="s">
         <v>139</v>
       </c>
@@ -7330,18 +7335,18 @@
       </c>
       <c r="K13" s="219">
         <f ca="1">+Common!$D$60</f>
-        <v>11353032.846153846</v>
+        <v>11353032.846153811</v>
       </c>
       <c r="L13" s="220">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26424657099590204</v>
+        <v>0.26424657099590287</v>
       </c>
       <c r="M13" s="186">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4093150453114776</v>
+        <v>1.4093150453114975</v>
       </c>
       <c r="N13" s="221">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ref="N13:N24" ca="1" si="8">IF(L13&gt;0,ROUNDUP(((H13/MIN(L13,M13))),0),H13/M13)</f>
         <v>0</v>
       </c>
       <c r="O13" s="222">
@@ -7353,7 +7358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="231" t="s">
         <v>140</v>
       </c>
@@ -7389,18 +7394,18 @@
       </c>
       <c r="K14" s="219">
         <f ca="1">+Common!$D$60</f>
-        <v>11353032.846153846</v>
+        <v>11353032.846153811</v>
       </c>
       <c r="L14" s="220">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26424657099590204</v>
+        <v>0.26424657099590287</v>
       </c>
       <c r="M14" s="186">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4093150453114776</v>
+        <v>1.4093150453114975</v>
       </c>
       <c r="N14" s="221">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="O14" s="222">
@@ -7412,7 +7417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="231" t="s">
         <v>141</v>
       </c>
@@ -7448,18 +7453,18 @@
       </c>
       <c r="K15" s="219">
         <f ca="1">+Common!$D$60</f>
-        <v>11353032.846153846</v>
+        <v>11353032.846153811</v>
       </c>
       <c r="L15" s="220">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26424657099590204</v>
+        <v>0.26424657099590287</v>
       </c>
       <c r="M15" s="186">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4093150453114776</v>
+        <v>1.4093150453114975</v>
       </c>
       <c r="N15" s="221">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="O15" s="222">
@@ -7471,7 +7476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="231" t="s">
         <v>142</v>
       </c>
@@ -7507,18 +7512,18 @@
       </c>
       <c r="K16" s="219">
         <f ca="1">+Common!$D$60</f>
-        <v>11353032.846153846</v>
+        <v>11353032.846153811</v>
       </c>
       <c r="L16" s="220">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26424657099590204</v>
+        <v>0.26424657099590287</v>
       </c>
       <c r="M16" s="186">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4093150453114776</v>
+        <v>1.4093150453114975</v>
       </c>
       <c r="N16" s="221">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="O16" s="222">
@@ -7530,7 +7535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="231" t="s">
         <v>143</v>
       </c>
@@ -7566,18 +7571,18 @@
       </c>
       <c r="K17" s="219">
         <f ca="1">+Common!$D$60</f>
-        <v>11353032.846153846</v>
+        <v>11353032.846153811</v>
       </c>
       <c r="L17" s="220">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26424657099590204</v>
+        <v>0.26424657099590287</v>
       </c>
       <c r="M17" s="186">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4093150453114776</v>
+        <v>1.4093150453114975</v>
       </c>
       <c r="N17" s="221">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="O17" s="222">
@@ -7589,7 +7594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="231" t="s">
         <v>144</v>
       </c>
@@ -7625,18 +7630,18 @@
       </c>
       <c r="K18" s="219">
         <f ca="1">+Common!$D$60</f>
-        <v>11353032.846153846</v>
+        <v>11353032.846153811</v>
       </c>
       <c r="L18" s="220">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26424657099590204</v>
+        <v>0.26424657099590287</v>
       </c>
       <c r="M18" s="186">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4093150453114776</v>
+        <v>1.4093150453114975</v>
       </c>
       <c r="N18" s="221">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="O18" s="222">
@@ -7648,7 +7653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="231" t="s">
         <v>145</v>
       </c>
@@ -7684,18 +7689,18 @@
       </c>
       <c r="K19" s="219">
         <f ca="1">+Common!$D$60</f>
-        <v>11353032.846153846</v>
+        <v>11353032.846153811</v>
       </c>
       <c r="L19" s="220">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26424657099590204</v>
+        <v>0.26424657099590287</v>
       </c>
       <c r="M19" s="186">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4093150453114776</v>
+        <v>1.4093150453114975</v>
       </c>
       <c r="N19" s="221">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="O19" s="222">
@@ -7707,7 +7712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="231" t="s">
         <v>146</v>
       </c>
@@ -7743,18 +7748,18 @@
       </c>
       <c r="K20" s="219">
         <f ca="1">+Common!$D$60</f>
-        <v>11353032.846153846</v>
+        <v>11353032.846153811</v>
       </c>
       <c r="L20" s="220">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26424657099590204</v>
+        <v>0.26424657099590287</v>
       </c>
       <c r="M20" s="186">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4093150453114776</v>
+        <v>1.4093150453114975</v>
       </c>
       <c r="N20" s="221">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="O20" s="222">
@@ -7766,7 +7771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="231" t="s">
         <v>147</v>
       </c>
@@ -7802,30 +7807,30 @@
       </c>
       <c r="K21" s="219">
         <f ca="1">+Common!$D$60</f>
-        <v>11353032.846153846</v>
+        <v>11353032.846153811</v>
       </c>
       <c r="L21" s="220">
-        <f t="shared" ref="L21:L23" ca="1" si="10">(J21/K21)</f>
-        <v>0.26424657099590204</v>
+        <f t="shared" ref="L21:L23" ca="1" si="9">(J21/K21)</f>
+        <v>0.26424657099590287</v>
       </c>
       <c r="M21" s="186">
-        <f t="shared" ref="M21:M23" ca="1" si="11">(1-I21)*$M$3</f>
-        <v>1.4093150453114776</v>
+        <f t="shared" ref="M21:M23" ca="1" si="10">(1-I21)*$M$3</f>
+        <v>1.4093150453114975</v>
       </c>
       <c r="N21" s="221">
-        <f t="shared" ref="N21:N23" ca="1" si="12">ROUNDUP(((H21/MIN(L21,M21))),0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="O21" s="222">
-        <f t="shared" ref="O21:O23" ca="1" si="13">+N21/$O$27</f>
+        <f t="shared" ref="O21:O23" ca="1" si="11">+N21/$O$27</f>
         <v>0</v>
       </c>
       <c r="P21" s="193">
-        <f t="shared" ref="P21:P23" ca="1" si="14">+N21/$O$27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <f t="shared" ref="P21:P23" ca="1" si="12">+N21/$O$27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="231" t="s">
         <v>163</v>
       </c>
@@ -7861,30 +7866,30 @@
       </c>
       <c r="K22" s="219">
         <f ca="1">+Common!$D$60</f>
-        <v>11353032.846153846</v>
+        <v>11353032.846153811</v>
       </c>
       <c r="L22" s="220">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.26424657099590287</v>
+      </c>
+      <c r="M22" s="186">
         <f t="shared" ca="1" si="10"/>
-        <v>0.26424657099590204</v>
-      </c>
-      <c r="M22" s="186">
+        <v>1.4093150453114975</v>
+      </c>
+      <c r="N22" s="221">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="222">
         <f t="shared" ca="1" si="11"/>
-        <v>1.4093150453114776</v>
-      </c>
-      <c r="N22" s="221">
+        <v>0</v>
+      </c>
+      <c r="P22" s="193">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="O22" s="222">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="193">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" s="127" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:23" s="127" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="231" t="s">
         <v>164</v>
       </c>
@@ -7920,30 +7925,30 @@
       </c>
       <c r="K23" s="219">
         <f ca="1">+Common!$D$60</f>
-        <v>11353032.846153846</v>
+        <v>11353032.846153811</v>
       </c>
       <c r="L23" s="220">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.26424657099590287</v>
+      </c>
+      <c r="M23" s="186">
         <f t="shared" ca="1" si="10"/>
-        <v>0.26424657099590204</v>
-      </c>
-      <c r="M23" s="186">
+        <v>1.4093150453114975</v>
+      </c>
+      <c r="N23" s="221">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="222">
         <f t="shared" ca="1" si="11"/>
-        <v>1.4093150453114776</v>
-      </c>
-      <c r="N23" s="221">
+        <v>0</v>
+      </c>
+      <c r="P23" s="193">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="O23" s="222">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="193">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:23" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="231" t="s">
         <v>165</v>
       </c>
@@ -7979,18 +7984,18 @@
       </c>
       <c r="K24" s="219">
         <f ca="1">+Common!$D$60</f>
-        <v>11353032.846153846</v>
+        <v>11353032.846153811</v>
       </c>
       <c r="L24" s="220">
-        <f t="shared" ref="L24" ca="1" si="15">(J24/K24)</f>
-        <v>0.26424657099590204</v>
+        <f t="shared" ref="L24" ca="1" si="13">(J24/K24)</f>
+        <v>0.26424657099590287</v>
       </c>
       <c r="M24" s="186">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4093150453114776</v>
+        <v>1.4093150453114975</v>
       </c>
       <c r="N24" s="221">
-        <f t="shared" ref="N24" ca="1" si="16">(H24/MIN(L24,M24))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="O24" s="222">
@@ -8002,7 +8007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="234"/>
       <c r="B25" s="234"/>
       <c r="C25" s="60"/>
@@ -8020,7 +8025,7 @@
       <c r="O25" s="221"/>
       <c r="P25" s="193"/>
     </row>
-    <row r="26" spans="1:23" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="241" t="s">
         <v>76</v>
       </c>
@@ -8052,7 +8057,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="234"/>
       <c r="B27" s="234"/>
       <c r="E27" s="172"/>
@@ -8073,7 +8078,7 @@
       </c>
       <c r="Q27" s="104"/>
     </row>
-    <row r="28" spans="1:23" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="241"/>
       <c r="B28" s="241"/>
       <c r="C28" s="126"/>
@@ -8086,7 +8091,7 @@
       <c r="J28" s="243"/>
       <c r="Q28" s="244"/>
     </row>
-    <row r="29" spans="1:23" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="234"/>
       <c r="B29" s="234"/>
       <c r="E29" s="165"/>
@@ -8096,21 +8101,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:23" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E30" s="336"/>
       <c r="F30" s="245"/>
       <c r="G30" s="245"/>
     </row>
-    <row r="31" spans="1:23" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:23" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:23" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="U32" s="99" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D33" s="45"/>
     </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
       <c r="J34" s="21" t="s">
         <v>40</v>
       </c>
@@ -8135,33 +8140,33 @@
   <dimension ref="B1:Q38"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="20" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" style="20" customWidth="1"/>
     <col min="2" max="2" width="39" style="20" customWidth="1"/>
     <col min="3" max="4" width="15.6640625" style="20" customWidth="1"/>
     <col min="5" max="5" width="1.6640625" style="21" customWidth="1"/>
     <col min="6" max="7" width="16.33203125" style="20" customWidth="1"/>
-    <col min="8" max="8" width="41.83203125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="19.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.77734375" style="20" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" style="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" style="20" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" style="21" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.33203125" style="20" customWidth="1"/>
     <col min="13" max="13" width="14.33203125" style="20" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.33203125" style="20" customWidth="1"/>
-    <col min="15" max="16384" width="11.5" style="20"/>
+    <col min="15" max="16384" width="11.44140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B1" s="59" t="str">
         <f>Common!A1</f>
         <v>TBD, Inc.</v>
       </c>
     </row>
-    <row r="2" spans="2:17" ht="20" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B2" s="29" t="s">
         <v>42</v>
       </c>
@@ -8173,16 +8178,16 @@
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
     </row>
-    <row r="3" spans="2:17" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C3" s="150"/>
     </row>
-    <row r="4" spans="2:17" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C4" s="150"/>
     </row>
-    <row r="5" spans="2:17" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C5" s="150"/>
     </row>
-    <row r="6" spans="2:17" s="99" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="176"/>
       <c r="C6" s="177" t="s">
         <v>51</v>
@@ -8202,7 +8207,7 @@
       <c r="N6" s="339"/>
       <c r="O6" s="339"/>
     </row>
-    <row r="7" spans="2:17" s="99" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" s="99" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="155"/>
       <c r="C7" s="156" t="s">
         <v>15</v>
@@ -8227,7 +8232,7 @@
       <c r="P7" s="157"/>
       <c r="Q7" s="157"/>
     </row>
-    <row r="8" spans="2:17" s="104" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" s="104" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="104" t="s">
         <v>9</v>
       </c>
@@ -8237,7 +8242,7 @@
       </c>
       <c r="D8" s="178">
         <f ca="1">C8/$C$15</f>
-        <v>0.79273971298770607</v>
+        <v>0.79273971298776269</v>
       </c>
       <c r="E8" s="126"/>
       <c r="F8" s="179"/>
@@ -8253,7 +8258,7 @@
       </c>
       <c r="K8" s="180">
         <f ca="1">+J8/J$15</f>
-        <v>0.60591566337562974</v>
+        <v>0.60591566337564451</v>
       </c>
       <c r="M8" s="181"/>
       <c r="N8" s="179"/>
@@ -8261,7 +8266,7 @@
       <c r="P8" s="182"/>
       <c r="Q8" s="175"/>
     </row>
-    <row r="9" spans="2:17" s="104" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" s="104" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="114" t="s">
         <v>18</v>
       </c>
@@ -8271,7 +8276,7 @@
       </c>
       <c r="D9" s="178">
         <f ca="1">C9/$C$15</f>
-        <v>1.1010273791495918E-2</v>
+        <v>1.1010273791496704E-2</v>
       </c>
       <c r="E9" s="126"/>
       <c r="F9" s="179"/>
@@ -8290,7 +8295,7 @@
       </c>
       <c r="K9" s="180">
         <f ca="1">+J9/J$15</f>
-        <v>8.4154953246615236E-3</v>
+        <v>8.4154953246617301E-3</v>
       </c>
       <c r="M9" s="183"/>
       <c r="N9" s="179"/>
@@ -8298,7 +8303,7 @@
       <c r="P9" s="182"/>
       <c r="Q9" s="175"/>
     </row>
-    <row r="10" spans="2:17" s="104" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" s="104" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="114" t="s">
         <v>19</v>
       </c>
@@ -8308,7 +8313,7 @@
       </c>
       <c r="D10" s="178">
         <f ca="1">C10/$C$15</f>
-        <v>7.7071916540471422E-2</v>
+        <v>7.7071916540476931E-2</v>
       </c>
       <c r="E10" s="126"/>
       <c r="F10" s="179"/>
@@ -8327,7 +8332,7 @@
       </c>
       <c r="K10" s="180">
         <f ca="1">+J10/J$15</f>
-        <v>5.8908467272630674E-2</v>
+        <v>5.8908467272632103E-2</v>
       </c>
       <c r="M10" s="183"/>
       <c r="N10" s="179"/>
@@ -8335,36 +8340,36 @@
       <c r="P10" s="182"/>
       <c r="Q10" s="175"/>
     </row>
-    <row r="11" spans="2:17" s="104" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" s="104" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="114" t="s">
         <v>80</v>
       </c>
       <c r="C11" s="158">
         <f ca="1">+G11</f>
-        <v>1353032.846153846</v>
+        <v>1353032.8461536858</v>
       </c>
       <c r="D11" s="178">
         <f ca="1">C11/$C$15</f>
-        <v>0.11917809668032656</v>
+        <v>0.11917809668032095</v>
       </c>
       <c r="E11" s="126"/>
       <c r="F11" s="179"/>
       <c r="G11" s="327">
         <f ca="1">+F37</f>
-        <v>1353032.846153846</v>
+        <v>1353032.8461538106</v>
       </c>
       <c r="H11" s="144">
         <f ca="1">+G11</f>
-        <v>1353032.846153846</v>
+        <v>1353032.8461538106</v>
       </c>
       <c r="I11" s="144"/>
       <c r="J11" s="144">
         <f ca="1">+H11</f>
-        <v>1353032.846153846</v>
+        <v>1353032.8461538106</v>
       </c>
       <c r="K11" s="180">
         <f ca="1">+J11/J$15</f>
-        <v>9.1091532727369334E-2</v>
+        <v>9.1091532727369168E-2</v>
       </c>
       <c r="M11" s="99"/>
       <c r="N11" s="179"/>
@@ -8372,7 +8377,7 @@
       <c r="P11" s="182"/>
       <c r="Q11" s="175"/>
     </row>
-    <row r="12" spans="2:17" s="104" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" s="104" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="114" t="s">
         <v>81</v>
       </c>
@@ -8383,7 +8388,7 @@
       <c r="G12" s="144"/>
       <c r="H12" s="144">
         <f ca="1">SUM(H9:H11)</f>
-        <v>2353032.846153846</v>
+        <v>2353032.8461538106</v>
       </c>
       <c r="I12" s="184"/>
       <c r="J12" s="185"/>
@@ -8394,7 +8399,7 @@
       <c r="P12" s="182"/>
       <c r="Q12" s="175"/>
     </row>
-    <row r="13" spans="2:17" s="104" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" s="104" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="114" t="s">
         <v>200</v>
       </c>
@@ -8417,7 +8422,7 @@
       </c>
       <c r="K13" s="180">
         <f ca="1">+J13/J$15</f>
-        <v>3.5668841299708778E-2</v>
+        <v>3.5668841299709646E-2</v>
       </c>
       <c r="M13" s="183"/>
       <c r="N13" s="179"/>
@@ -8425,7 +8430,7 @@
       <c r="P13" s="182"/>
       <c r="Q13" s="175"/>
     </row>
-    <row r="14" spans="2:17" s="104" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" s="104" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="114" t="s">
         <v>78</v>
       </c>
@@ -8438,17 +8443,17 @@
       </c>
       <c r="G14" s="259">
         <f ca="1">F28</f>
-        <v>2970710.4615384601</v>
+        <v>2970710.461538421</v>
       </c>
       <c r="H14" s="144"/>
       <c r="I14" s="144"/>
       <c r="J14" s="144">
         <f ca="1">+G14</f>
-        <v>2970710.4615384601</v>
+        <v>2970710.461538421</v>
       </c>
       <c r="K14" s="180">
         <f ca="1">+J14/J$15</f>
-        <v>0.19999999999999993</v>
+        <v>0.20000000000000215</v>
       </c>
       <c r="M14" s="183"/>
       <c r="N14" s="179"/>
@@ -8456,13 +8461,13 @@
       <c r="P14" s="182"/>
       <c r="Q14" s="175"/>
     </row>
-    <row r="15" spans="2:17" s="104" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" s="104" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="104" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="160">
         <f ca="1">SUM(C8:C14)</f>
-        <v>11353032.846153846</v>
+        <v>11353032.846153686</v>
       </c>
       <c r="D15" s="187">
         <f ca="1">ROUND(SUM(D8:D14),1)</f>
@@ -8475,17 +8480,17 @@
       </c>
       <c r="G15" s="328">
         <f ca="1">SUM(G8:G14)</f>
-        <v>14853552.307692306</v>
+        <v>14853552.307692232</v>
       </c>
       <c r="H15" s="190"/>
       <c r="I15" s="190"/>
       <c r="J15" s="190">
         <f ca="1">SUM(J8:J14)</f>
-        <v>14853552.307692306</v>
+        <v>14853552.307692232</v>
       </c>
       <c r="K15" s="191">
         <f ca="1">SUM(K8:K14)</f>
-        <v>1</v>
+        <v>1.0000000000000191</v>
       </c>
       <c r="M15" s="181"/>
       <c r="N15" s="112"/>
@@ -8493,7 +8498,7 @@
       <c r="P15" s="192"/>
       <c r="Q15" s="114"/>
     </row>
-    <row r="16" spans="2:17" s="104" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" s="104" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C16" s="114"/>
       <c r="D16" s="179"/>
       <c r="E16" s="126"/>
@@ -8506,7 +8511,7 @@
       <c r="M16" s="192"/>
       <c r="N16" s="114"/>
     </row>
-    <row r="17" spans="2:14" s="104" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" s="104" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="114"/>
       <c r="C17" s="158"/>
       <c r="D17" s="179"/>
@@ -8521,7 +8526,7 @@
       <c r="M17" s="192"/>
       <c r="N17" s="114"/>
     </row>
-    <row r="18" spans="2:14" s="99" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" s="99" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="127" t="s">
         <v>21</v>
       </c>
@@ -8537,7 +8542,7 @@
       <c r="M18" s="114"/>
       <c r="N18" s="114"/>
     </row>
-    <row r="19" spans="2:14" s="99" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" s="99" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="127"/>
       <c r="C19" s="196"/>
       <c r="D19" s="199"/>
@@ -8550,7 +8555,7 @@
       <c r="M19" s="114"/>
       <c r="N19" s="114"/>
     </row>
-    <row r="20" spans="2:14" s="99" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" s="99" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="127" t="s">
         <v>49</v>
       </c>
@@ -8567,7 +8572,7 @@
       <c r="M20" s="114"/>
       <c r="N20" s="114"/>
     </row>
-    <row r="21" spans="2:14" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B21" s="127"/>
       <c r="C21" s="126"/>
       <c r="D21" s="199"/>
@@ -8580,7 +8585,7 @@
       <c r="M21" s="114"/>
       <c r="N21" s="114"/>
     </row>
-    <row r="22" spans="2:14" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B22" s="127" t="s">
         <v>22</v>
       </c>
@@ -8598,7 +8603,7 @@
       <c r="M22" s="114"/>
       <c r="N22" s="114"/>
     </row>
-    <row r="23" spans="2:14" s="99" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" s="99" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="127" t="s">
         <v>89</v>
       </c>
@@ -8620,13 +8625,13 @@
       <c r="L23" s="205"/>
       <c r="M23" s="208">
         <f ca="1">+G13+C15</f>
-        <v>11882841.846153846</v>
+        <v>11882841.846153686</v>
       </c>
       <c r="N23" s="195">
         <v>0.9</v>
       </c>
     </row>
-    <row r="24" spans="2:14" s="99" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" s="99" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="127" t="s">
         <v>23</v>
       </c>
@@ -8642,13 +8647,13 @@
       </c>
       <c r="I24" s="173">
         <f ca="1">SUM(G8:G13)</f>
-        <v>11882841.846153846</v>
+        <v>11882841.846153811</v>
       </c>
       <c r="L24" s="205"/>
       <c r="M24" s="202"/>
       <c r="N24" s="202"/>
     </row>
-    <row r="25" spans="2:14" s="99" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" s="99" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="127" t="s">
         <v>92</v>
       </c>
@@ -8657,7 +8662,7 @@
       <c r="E25" s="126"/>
       <c r="F25" s="211">
         <f ca="1">F18/C15</f>
-        <v>1.7616438066393469</v>
+        <v>1.7616438066393718</v>
       </c>
       <c r="G25" s="212"/>
       <c r="H25" s="99" t="s">
@@ -8665,16 +8670,16 @@
       </c>
       <c r="I25" s="173">
         <f ca="1">I24/I23</f>
-        <v>14853552.307692306</v>
+        <v>14853552.307692263</v>
       </c>
       <c r="L25" s="205"/>
       <c r="M25" s="213">
         <f ca="1">+M23/N23</f>
-        <v>13203157.606837606</v>
+        <v>13203157.606837429</v>
       </c>
       <c r="N25" s="202"/>
     </row>
-    <row r="26" spans="2:14" s="99" customFormat="1" ht="65" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" s="99" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="329" t="s">
         <v>199</v>
       </c>
@@ -8683,7 +8688,7 @@
       <c r="E26" s="126"/>
       <c r="F26" s="211">
         <f ca="1">F18/SUM(G8:G13)</f>
-        <v>1.6830990649323048</v>
+        <v>1.6830990649323097</v>
       </c>
       <c r="G26" s="214"/>
       <c r="H26" s="99" t="s">
@@ -8691,13 +8696,13 @@
       </c>
       <c r="I26" s="261">
         <f ca="1">I25-I24</f>
-        <v>2970710.4615384601</v>
+        <v>2970710.4615384527</v>
       </c>
       <c r="L26" s="205"/>
       <c r="M26" s="114"/>
       <c r="N26" s="114"/>
     </row>
-    <row r="27" spans="2:14" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B27" s="127" t="s">
         <v>46</v>
       </c>
@@ -8706,7 +8711,7 @@
       <c r="E27" s="126"/>
       <c r="F27" s="158">
         <f ca="1">SUM(G8:G13)/(1-F23)</f>
-        <v>14853552.307692306</v>
+        <v>14853552.307692263</v>
       </c>
       <c r="G27" s="214"/>
       <c r="H27" s="202"/>
@@ -8715,7 +8720,7 @@
       <c r="M27" s="114"/>
       <c r="N27" s="114"/>
     </row>
-    <row r="28" spans="2:14" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B28" s="127" t="s">
         <v>93</v>
       </c>
@@ -8724,14 +8729,14 @@
       <c r="E28" s="126"/>
       <c r="F28" s="260">
         <f ca="1">F27-SUM(G8:G13)</f>
-        <v>2970710.4615384601</v>
+        <v>2970710.4615384527</v>
       </c>
       <c r="H28" s="99" t="s">
         <v>167</v>
       </c>
       <c r="I28" s="215">
         <f ca="1">+F20/F26</f>
-        <v>2970710.4615384615</v>
+        <v>2970710.4615384527</v>
       </c>
       <c r="J28" s="213"/>
       <c r="K28" s="213"/>
@@ -8739,7 +8744,7 @@
       <c r="M28" s="114"/>
       <c r="N28" s="114"/>
     </row>
-    <row r="29" spans="2:14" s="99" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" s="99" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="127"/>
       <c r="C29" s="126"/>
       <c r="D29" s="199"/>
@@ -8754,7 +8759,7 @@
       <c r="M29" s="114"/>
       <c r="N29" s="114"/>
     </row>
-    <row r="30" spans="2:14" s="99" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" s="99" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="254" t="s">
         <v>91</v>
       </c>
@@ -8772,8 +8777,8 @@
       <c r="M30" s="114"/>
       <c r="N30" s="114"/>
     </row>
-    <row r="31" spans="2:14" s="99" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:14" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" s="99" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="2:14" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B32" s="101" t="str">
         <f>+Common!C52</f>
         <v>FD Post A Shares prior to refresh</v>
@@ -8783,10 +8788,10 @@
       <c r="E32" s="102"/>
       <c r="F32" s="281">
         <f ca="1">+G8+G9+G10+G13+G14</f>
-        <v>13500519.46153846</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>13500519.461538421</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B33" s="107"/>
       <c r="C33" s="104"/>
       <c r="D33" s="104"/>
@@ -8796,7 +8801,7 @@
         <v>-875000</v>
       </c>
     </row>
-    <row r="34" spans="2:6" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B34" s="107" t="str">
         <f>+Common!C53</f>
         <v>FD Post A Less Options Available</v>
@@ -8806,10 +8811,10 @@
       <c r="E34" s="104"/>
       <c r="F34" s="282">
         <f ca="1">SUM(F32:F33)</f>
-        <v>12625519.46153846</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" s="99" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>12625519.461538421</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" s="99" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B35" s="283" t="s">
         <v>182</v>
       </c>
@@ -8818,17 +8823,17 @@
       <c r="E35" s="104"/>
       <c r="F35" s="284">
         <f ca="1">+F34/(1-F30)</f>
-        <v>14853552.307692306</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>14853552.30769226</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B36" s="107"/>
       <c r="C36" s="104"/>
       <c r="D36" s="104"/>
       <c r="E36" s="104"/>
       <c r="F36" s="106"/>
     </row>
-    <row r="37" spans="2:6" s="99" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" s="99" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="285" t="s">
         <v>183</v>
       </c>
@@ -8837,10 +8842,10 @@
       <c r="E37" s="123"/>
       <c r="F37" s="286">
         <f ca="1">MAX(F35-F32,0)</f>
-        <v>1353032.846153846</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+        <v>1353032.8461538386</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F6:J6"/>
@@ -8860,22 +8865,22 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.33203125" style="99" customWidth="1"/>
-    <col min="2" max="2" width="50.5" style="99" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="99" customWidth="1"/>
+    <col min="2" max="2" width="50.44140625" style="99" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="99" customWidth="1"/>
     <col min="4" max="4" width="18" style="99" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="99" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="99" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="99" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" style="100" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="99" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="99" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" style="99"/>
     <col min="10" max="10" width="12.6640625" style="99" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="8.6640625" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="21" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="59" t="str">
         <f>Common!A1</f>
         <v>TBD, Inc.</v>
@@ -8888,7 +8893,7 @@
       <c r="G1" s="26"/>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>204</v>
       </c>
@@ -8900,16 +8905,16 @@
       <c r="G2" s="26"/>
       <c r="H2" s="25"/>
     </row>
-    <row r="3" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="101"/>
       <c r="B5" s="102"/>
       <c r="C5" s="102"/>
       <c r="D5" s="103"/>
       <c r="E5" s="104"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="105" t="s">
         <v>25</v>
       </c>
@@ -8918,14 +8923,14 @@
       <c r="D6" s="106"/>
       <c r="E6" s="104"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="105"/>
       <c r="B7" s="104"/>
       <c r="C7" s="104"/>
       <c r="D7" s="106"/>
       <c r="E7" s="104"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="107"/>
       <c r="B8" s="108" t="s">
         <v>26</v>
@@ -8938,13 +8943,13 @@
       </c>
       <c r="E8" s="104"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="110"/>
       <c r="C9" s="104"/>
       <c r="D9" s="111"/>
       <c r="E9" s="104"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="107"/>
       <c r="B10" s="104" t="s">
         <v>27</v>
@@ -8955,10 +8960,10 @@
       </c>
       <c r="D10" s="111">
         <f ca="1">C10/$C$16</f>
-        <v>0.75739457921953712</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.75739457921954734</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="107"/>
       <c r="B11" s="104" t="s">
         <v>28</v>
@@ -8969,14 +8974,14 @@
       </c>
       <c r="D11" s="111">
         <f ca="1">C11/$C$16</f>
-        <v>1.0519369155826904E-2</v>
+        <v>1.0519369155827046E-2</v>
       </c>
       <c r="E11" s="113">
         <f ca="1">+D11+D12+D13</f>
-        <v>0.19801936915582691</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.19801936915582635</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="107"/>
       <c r="B12" s="114" t="s">
         <v>50</v>
@@ -8987,26 +8992,26 @@
       </c>
       <c r="D12" s="111">
         <f ca="1">C12/$C$16</f>
-        <v>7.3635584090788339E-2</v>
+        <v>7.3635584090789324E-2</v>
       </c>
       <c r="E12" s="115"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="107"/>
       <c r="B13" s="114" t="s">
         <v>80</v>
       </c>
       <c r="C13" s="112">
         <f ca="1">Common!D56</f>
-        <v>1353032.846153846</v>
+        <v>1353032.8461538106</v>
       </c>
       <c r="D13" s="111">
         <f ca="1">C13/$C$16</f>
-        <v>0.11386441590921166</v>
+        <v>0.11386441590921022</v>
       </c>
       <c r="E13" s="115"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="107"/>
       <c r="B14" s="104" t="str">
         <f>+'Pro Forma - Series A Inputs'!B13</f>
@@ -9018,48 +9023,48 @@
       </c>
       <c r="D14" s="111">
         <f ca="1">C14/$C$16</f>
-        <v>4.4586051624635969E-2</v>
+        <v>4.4586051624636573E-2</v>
       </c>
       <c r="E14" s="115"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="117"/>
       <c r="B15" s="104"/>
       <c r="C15" s="112"/>
       <c r="D15" s="111"/>
       <c r="E15" s="104"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="118" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="119"/>
       <c r="C16" s="120">
         <f ca="1">SUM(C10:C14)</f>
-        <v>11882841.846153846</v>
+        <v>11882841.846153811</v>
       </c>
       <c r="D16" s="121">
         <f ca="1">SUM(D10:D14)</f>
-        <v>1</v>
+        <v>1.0000000000000104</v>
       </c>
       <c r="E16" s="104"/>
     </row>
-    <row r="17" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="122"/>
       <c r="B17" s="123"/>
       <c r="C17" s="123"/>
       <c r="D17" s="124"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="125" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="126"/>
       <c r="D20" s="126"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="127" t="s">
         <v>31</v>
       </c>
@@ -9073,7 +9078,7 @@
       <c r="G21" s="129"/>
       <c r="H21" s="129"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="127" t="s">
         <v>32</v>
       </c>
@@ -9083,17 +9088,17 @@
       </c>
       <c r="D22" s="126"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E23" s="104"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="104"/>
       <c r="B24" s="104"/>
       <c r="C24" s="104"/>
       <c r="D24" s="104"/>
       <c r="E24" s="104"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="130" t="s">
         <v>33</v>
       </c>
@@ -9105,7 +9110,7 @@
       <c r="D25" s="104"/>
       <c r="E25" s="104"/>
     </row>
-    <row r="26" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="130"/>
       <c r="B26" s="132" t="s">
         <v>88</v>
@@ -9113,7 +9118,7 @@
       <c r="C26" s="104"/>
       <c r="D26" s="104"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="104"/>
       <c r="B27" s="133" t="s">
         <v>26</v>
@@ -9137,7 +9142,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="132"/>
       <c r="B28" s="107"/>
       <c r="C28" s="104"/>
@@ -9147,7 +9152,7 @@
       <c r="G28" s="139"/>
       <c r="H28" s="106"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="104"/>
       <c r="B29" s="250" t="str">
         <f>+Common!C9</f>
@@ -9166,10 +9171,10 @@
       </c>
       <c r="H29" s="141">
         <f ca="1">+G29/G$86</f>
-        <v>0.26929585038916876</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.26929585038920001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="104"/>
       <c r="B30" s="250" t="str">
         <f>+Common!C10</f>
@@ -9188,10 +9193,10 @@
       </c>
       <c r="H30" s="141">
         <f ca="1">+G30/G$86</f>
-        <v>0.26929585038916876</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.26929585038920001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="104"/>
       <c r="B31" s="250" t="str">
         <f>+Common!C11</f>
@@ -9210,10 +9215,10 @@
       </c>
       <c r="H31" s="141">
         <f ca="1">+G31/G$86</f>
-        <v>6.7323962597292189E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6.7323962597300002E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="104"/>
       <c r="B32" s="250" t="str">
         <f>+Common!C12</f>
@@ -9235,7 +9240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="104"/>
       <c r="B33" s="250" t="str">
         <f>+Common!C13</f>
@@ -9257,7 +9262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="104"/>
       <c r="B34" s="250" t="str">
         <f>+Common!C14</f>
@@ -9279,7 +9284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="104"/>
       <c r="B35" s="250" t="str">
         <f>+Common!C15</f>
@@ -9301,7 +9306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="104"/>
       <c r="B36" s="250" t="str">
         <f>+Common!C16</f>
@@ -9323,7 +9328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="104"/>
       <c r="B37" s="250" t="str">
         <f>+Common!C17</f>
@@ -9345,7 +9350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="104"/>
       <c r="B38" s="250" t="str">
         <f>+Common!C18</f>
@@ -9367,7 +9372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="104"/>
       <c r="B39" s="253" t="str">
         <f>+Common!C24</f>
@@ -9386,10 +9391,10 @@
       </c>
       <c r="H39" s="141">
         <f t="shared" ca="1" si="3"/>
-        <v>8.4154953246615236E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8.4154953246625003E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="104"/>
       <c r="B40" s="252" t="str">
         <f>+Common!C25</f>
@@ -9411,7 +9416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="104"/>
       <c r="B41" s="252" t="str">
         <f>+Common!C26</f>
@@ -9433,7 +9438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="104"/>
       <c r="B42" s="252" t="str">
         <f>+Common!C27</f>
@@ -9455,7 +9460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="104"/>
       <c r="B43" s="252" t="str">
         <f>+Common!C28</f>
@@ -9477,7 +9482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="104"/>
       <c r="B44" s="252" t="str">
         <f>+Common!C29</f>
@@ -9499,7 +9504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="104"/>
       <c r="B45" s="252" t="str">
         <f>+Common!C30</f>
@@ -9521,7 +9526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="104"/>
       <c r="B46" s="252" t="str">
         <f>+Common!C31</f>
@@ -9543,7 +9548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="104"/>
       <c r="B47" s="252" t="str">
         <f>+Common!C32</f>
@@ -9565,7 +9570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="104"/>
       <c r="B48" s="252" t="str">
         <f>+Common!C33</f>
@@ -9587,7 +9592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="104"/>
       <c r="B49" s="252" t="str">
         <f>+Common!C34</f>
@@ -9609,7 +9614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="104"/>
       <c r="B50" s="252" t="str">
         <f>+Common!C35</f>
@@ -9631,7 +9636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="104"/>
       <c r="B51" s="252" t="str">
         <f>+Common!C36</f>
@@ -9653,7 +9658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="104"/>
       <c r="B52" s="252" t="str">
         <f>+Common!C37</f>
@@ -9675,7 +9680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="104"/>
       <c r="B53" s="252" t="str">
         <f>+Common!C38</f>
@@ -9697,7 +9702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="104"/>
       <c r="B54" s="252" t="str">
         <f>+Common!C39</f>
@@ -9719,7 +9724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="104"/>
       <c r="B55" s="252" t="str">
         <f>+Common!C40</f>
@@ -9741,7 +9746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="104"/>
       <c r="B56" s="252" t="str">
         <f>+Common!C41</f>
@@ -9763,7 +9768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="104"/>
       <c r="B57" s="252" t="str">
         <f>+Common!C42</f>
@@ -9785,7 +9790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="104"/>
       <c r="B58" s="252" t="str">
         <f>+Common!C43</f>
@@ -9807,7 +9812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="104"/>
       <c r="B59" s="252" t="str">
         <f>+Common!C44</f>
@@ -9829,7 +9834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="104"/>
       <c r="B60" s="107" t="s">
         <v>34</v>
@@ -9847,10 +9852,10 @@
       </c>
       <c r="H60" s="141">
         <f ca="1">+G60/G$86</f>
-        <v>5.8908467272630674E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5.8908467272637502E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="104"/>
       <c r="B61" s="107" t="s">
         <v>86</v>
@@ -9858,20 +9863,20 @@
       <c r="C61" s="142"/>
       <c r="D61" s="143">
         <f ca="1">+'Pro Forma - Series A Inputs'!J11</f>
-        <v>1353032.846153846</v>
+        <v>1353032.8461536858</v>
       </c>
       <c r="E61" s="104"/>
       <c r="F61" s="104"/>
       <c r="G61" s="143">
         <f ca="1">+D61</f>
-        <v>1353032.846153846</v>
+        <v>1353032.8461536858</v>
       </c>
       <c r="H61" s="141">
         <f ca="1">+G61/G$86</f>
-        <v>9.1091532727369334E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9.1091532727369112E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="104"/>
       <c r="B62" s="110" t="str">
         <f>+'Pro Forma - Series A Inputs'!B13</f>
@@ -9884,7 +9889,7 @@
       <c r="G62" s="143"/>
       <c r="H62" s="141"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="104"/>
       <c r="B63" s="251" t="str">
         <f>'SAFEs &amp; Notes'!A5</f>
@@ -9903,10 +9908,10 @@
       </c>
       <c r="H63" s="141">
         <f t="shared" ref="H63:H82" ca="1" si="10">+G63/G$86</f>
-        <v>5.0955487571012542E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5.0955487571018457E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="104"/>
       <c r="B64" s="251" t="str">
         <f>'SAFEs &amp; Notes'!A6</f>
@@ -9925,10 +9930,10 @@
       </c>
       <c r="H64" s="141">
         <f t="shared" ca="1" si="10"/>
-        <v>3.0573292542607527E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.0573292542611073E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="104"/>
       <c r="B65" s="251" t="str">
         <f>'SAFEs &amp; Notes'!A7</f>
@@ -9950,7 +9955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="104"/>
       <c r="B66" s="251" t="str">
         <f>'SAFEs &amp; Notes'!A8</f>
@@ -9972,7 +9977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="104"/>
       <c r="B67" s="251" t="str">
         <f>'SAFEs &amp; Notes'!A9</f>
@@ -9994,7 +9999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="104"/>
       <c r="B68" s="251" t="str">
         <f>'SAFEs &amp; Notes'!A10</f>
@@ -10016,7 +10021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="104"/>
       <c r="B69" s="251" t="str">
         <f>'SAFEs &amp; Notes'!A11</f>
@@ -10038,7 +10043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="104"/>
       <c r="B70" s="251" t="str">
         <f>'SAFEs &amp; Notes'!A12</f>
@@ -10060,7 +10065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="104"/>
       <c r="B71" s="251" t="str">
         <f>'SAFEs &amp; Notes'!A13</f>
@@ -10082,7 +10087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="104"/>
       <c r="B72" s="251" t="str">
         <f>'SAFEs &amp; Notes'!A14</f>
@@ -10104,7 +10109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="104"/>
       <c r="B73" s="251" t="str">
         <f>'SAFEs &amp; Notes'!A15</f>
@@ -10126,7 +10131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="104"/>
       <c r="B74" s="251" t="str">
         <f>'SAFEs &amp; Notes'!A16</f>
@@ -10148,7 +10153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="104"/>
       <c r="B75" s="251" t="str">
         <f>'SAFEs &amp; Notes'!A17</f>
@@ -10170,7 +10175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="104"/>
       <c r="B76" s="251" t="str">
         <f>'SAFEs &amp; Notes'!A18</f>
@@ -10192,7 +10197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="104"/>
       <c r="B77" s="251" t="str">
         <f>'SAFEs &amp; Notes'!A19</f>
@@ -10214,7 +10219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="104"/>
       <c r="B78" s="251" t="str">
         <f>'SAFEs &amp; Notes'!A20</f>
@@ -10236,7 +10241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="104"/>
       <c r="B79" s="251" t="str">
         <f>'SAFEs &amp; Notes'!A21</f>
@@ -10258,7 +10263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="104"/>
       <c r="B80" s="251" t="str">
         <f>'SAFEs &amp; Notes'!A22</f>
@@ -10280,7 +10285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="104"/>
       <c r="B81" s="251" t="str">
         <f>'SAFEs &amp; Notes'!A23</f>
@@ -10302,7 +10307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="104"/>
       <c r="B82" s="251" t="str">
         <f>'SAFEs &amp; Notes'!A24</f>
@@ -10324,7 +10329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="132"/>
       <c r="B83" s="110" t="s">
         <v>48</v>
@@ -10336,7 +10341,7 @@
       <c r="G83" s="143"/>
       <c r="H83" s="141"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="132"/>
       <c r="B84" s="107" t="s">
         <v>85</v>
@@ -10346,18 +10351,18 @@
       <c r="E84" s="104"/>
       <c r="F84" s="144">
         <f ca="1">+'Pro Forma - Series A Inputs'!J14</f>
-        <v>2970710.4615384601</v>
+        <v>2970710.4615382589</v>
       </c>
       <c r="G84" s="143">
         <f ca="1">+F84</f>
-        <v>2970710.4615384601</v>
+        <v>2970710.4615382589</v>
       </c>
       <c r="H84" s="141">
         <f ca="1">+G84/G$86</f>
-        <v>0.19999999999999993</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.20000000000000959</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="132"/>
       <c r="B85" s="110"/>
       <c r="C85" s="142"/>
@@ -10367,7 +10372,7 @@
       <c r="G85" s="143"/>
       <c r="H85" s="145"/>
     </row>
-    <row r="86" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="132"/>
       <c r="B86" s="122" t="s">
         <v>20</v>
@@ -10378,39 +10383,39 @@
       <c r="F86" s="123"/>
       <c r="G86" s="148">
         <f ca="1">SUM(G29:G84)</f>
-        <v>14853552.307692306</v>
+        <v>14853552.307691945</v>
       </c>
       <c r="H86" s="149">
         <f ca="1">SUM(H29:H84)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.0000000000000917</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C87" s="142"/>
       <c r="D87" s="139"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="104"/>
       <c r="B88" s="104"/>
       <c r="C88" s="104"/>
       <c r="D88" s="104"/>
       <c r="E88" s="104"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="104"/>
       <c r="B89" s="104"/>
       <c r="C89" s="104"/>
       <c r="D89" s="104"/>
       <c r="E89" s="104"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="104"/>
       <c r="B90" s="104"/>
       <c r="C90" s="104"/>
       <c r="D90" s="104"/>
       <c r="E90" s="104"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E91" s="104"/>
     </row>
   </sheetData>
@@ -10432,30 +10437,30 @@
       <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="99" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" style="99" customWidth="1"/>
     <col min="2" max="2" width="45.6640625" style="99" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="99" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="99" customWidth="1"/>
     <col min="4" max="4" width="2.6640625" style="114" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="99" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="99" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="99" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="99" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="99" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.33203125" style="99" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="99" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" style="99" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.5" style="99" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" style="99" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="99"/>
+    <col min="11" max="12" width="12.44140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" style="99" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="20" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:12" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="B1" s="59" t="s">
         <v>75</v>
       </c>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="2:12" s="20" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" s="20" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B2" s="29" t="s">
         <v>42</v>
       </c>
@@ -10463,22 +10468,22 @@
       <c r="D2" s="68"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="2:12" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:12" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C3" s="23"/>
       <c r="D3" s="67"/>
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C4" s="150"/>
       <c r="D4" s="151"/>
       <c r="E4" s="150"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C5" s="150"/>
       <c r="D5" s="151"/>
       <c r="E5" s="150"/>
     </row>
-    <row r="6" spans="2:12" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="152"/>
       <c r="C6" s="153" t="s">
         <v>94</v>
@@ -10488,7 +10493,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="155"/>
       <c r="C7" s="156" t="s">
         <v>15</v>
@@ -10496,7 +10501,7 @@
       <c r="D7" s="157"/>
       <c r="E7" s="156"/>
     </row>
-    <row r="8" spans="2:12" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="104" t="s">
         <v>9</v>
       </c>
@@ -10507,7 +10512,7 @@
       <c r="D8" s="158"/>
       <c r="E8" s="158"/>
     </row>
-    <row r="9" spans="2:12" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="114" t="s">
         <v>18</v>
       </c>
@@ -10518,7 +10523,7 @@
       <c r="D9" s="158"/>
       <c r="E9" s="158"/>
     </row>
-    <row r="10" spans="2:12" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="114" t="s">
         <v>19</v>
       </c>
@@ -10529,13 +10534,13 @@
       <c r="D10" s="158"/>
       <c r="E10" s="158"/>
     </row>
-    <row r="11" spans="2:12" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="114" t="s">
         <v>80</v>
       </c>
       <c r="C11" s="258">
         <f ca="1">'Pro Forma - Series A Inputs'!J11</f>
-        <v>1353032.846153846</v>
+        <v>1353032.8461538106</v>
       </c>
       <c r="D11" s="158"/>
       <c r="E11" s="158"/>
@@ -10543,7 +10548,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="2:12" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="114" t="s">
         <v>87</v>
       </c>
@@ -10561,13 +10566,13 @@
         <v>4.2145593869731802E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:12" s="104" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" s="104" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="114" t="s">
         <v>78</v>
       </c>
       <c r="C13" s="287">
         <f ca="1">'Pro Forma - Series A Inputs'!G14</f>
-        <v>2970710.4615384601</v>
+        <v>2970710.461538421</v>
       </c>
       <c r="D13" s="158"/>
       <c r="E13" s="159">
@@ -10580,26 +10585,26 @@
       </c>
       <c r="I13" s="289">
         <f ca="1">C13+C12</f>
-        <v>3500519.4615384601</v>
+        <v>3500519.461538421</v>
       </c>
       <c r="J13" s="104">
         <v>1.2</v>
       </c>
       <c r="K13" s="290">
         <f ca="1">I13*J13</f>
-        <v>4200623.3538461523</v>
+        <v>4200623.3538461048</v>
       </c>
       <c r="L13" s="104" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="2:12" s="104" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" s="104" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="104" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="161">
         <f ca="1">SUM(C8:C13)</f>
-        <v>14728552.307692306</v>
+        <v>14728552.307692232</v>
       </c>
       <c r="D14" s="158"/>
       <c r="E14" s="162">
@@ -10607,23 +10612,23 @@
         <v>5220000</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I15" s="173">
         <f ca="1">C14</f>
-        <v>14728552.307692306</v>
+        <v>14728552.307692232</v>
       </c>
       <c r="J15" s="99">
         <v>0.1</v>
       </c>
       <c r="K15" s="173">
         <f ca="1">I15*J15</f>
-        <v>1472855.2307692308</v>
+        <v>1472855.2307692233</v>
       </c>
       <c r="L15" s="99" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="216" t="s">
         <v>151</v>
       </c>
@@ -10631,7 +10636,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="99" t="s">
         <v>96</v>
       </c>
@@ -10646,44 +10651,44 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="99" t="s">
         <v>97</v>
       </c>
       <c r="C20" s="165">
         <f t="shared" ref="C20" ca="1" si="0">C18/C14</f>
-        <v>0.14258020449866138</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" s="126" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0.1425802044986621</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" s="126" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="126" t="s">
         <v>108</v>
       </c>
       <c r="C21" s="166"/>
       <c r="D21" s="114"/>
     </row>
-    <row r="22" spans="2:13" s="126" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" s="126" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="126" t="s">
         <v>111</v>
       </c>
       <c r="C22" s="166"/>
       <c r="D22" s="114"/>
     </row>
-    <row r="23" spans="2:13" s="126" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" s="126" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="126" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="166"/>
       <c r="D23" s="114"/>
     </row>
-    <row r="24" spans="2:13" s="126" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" s="126" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="126" t="s">
         <v>109</v>
       </c>
       <c r="C24" s="166"/>
       <c r="D24" s="114"/>
     </row>
-    <row r="25" spans="2:13" s="126" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" s="126" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="126" t="s">
         <v>110</v>
       </c>
@@ -10692,7 +10697,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="126" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" s="126" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="126" t="s">
         <v>112</v>
       </c>
@@ -10704,7 +10709,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="126" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" s="126" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D27" s="114"/>
       <c r="G27" s="126" t="s">
         <v>172</v>
@@ -10716,7 +10721,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="2:13" s="126" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" s="126" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="126" t="s">
         <v>98</v>
       </c>
@@ -10736,7 +10741,7 @@
       </c>
       <c r="I28" s="172">
         <f ca="1">C20*SUM(C12:C13)</f>
-        <v>499104.78067769768</v>
+        <v>499104.78067769459</v>
       </c>
       <c r="K28" s="126" t="s">
         <v>177</v>
@@ -10748,7 +10753,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="2:13" s="126" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" s="126" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="169" t="s">
         <v>85</v>
       </c>
@@ -10770,7 +10775,7 @@
         <v>2100000</v>
       </c>
     </row>
-    <row r="30" spans="2:13" s="126" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" s="126" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="169" t="s">
         <v>99</v>
       </c>
@@ -10780,10 +10785,10 @@
       </c>
       <c r="D30" s="114"/>
     </row>
-    <row r="31" spans="2:13" s="126" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" s="126" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D31" s="114"/>
     </row>
-    <row r="32" spans="2:13" s="126" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" s="126" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="126" t="s">
         <v>100</v>
       </c>
@@ -10793,7 +10798,7 @@
       </c>
       <c r="D32" s="114"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="170" t="s">
         <v>9</v>
       </c>
@@ -10802,7 +10807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="170" t="s">
         <v>18</v>
       </c>
@@ -10811,7 +10816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="170" t="s">
         <v>19</v>
       </c>
@@ -10820,7 +10825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="170" t="s">
         <v>101</v>
       </c>
@@ -10829,7 +10834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="99" t="s">
         <v>102</v>
       </c>
@@ -10838,12 +10843,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="216" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="99" t="s">
         <v>96</v>
       </c>
@@ -10851,28 +10856,28 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="99" t="s">
         <v>97</v>
       </c>
       <c r="C43" s="165">
         <f ca="1">C41/C14</f>
-        <v>0.13579067095110608</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" s="126" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0.13579067095110675</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" s="126" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="126" t="s">
         <v>111</v>
       </c>
       <c r="D44" s="114"/>
     </row>
-    <row r="45" spans="2:9" s="126" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" s="126" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="126" t="s">
         <v>109</v>
       </c>
       <c r="D45" s="114"/>
     </row>
-    <row r="46" spans="2:9" s="126" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" s="126" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="126" t="s">
         <v>110</v>
       </c>
@@ -10881,7 +10886,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="2:9" s="126" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" s="126" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="126" t="s">
         <v>112</v>
       </c>
@@ -10893,7 +10898,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C48" s="104"/>
       <c r="G48" s="126" t="s">
         <v>172</v>
@@ -10905,7 +10910,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="99" t="s">
         <v>98</v>
       </c>
@@ -10923,7 +10928,7 @@
       </c>
       <c r="I49" s="172">
         <f ca="1">C43*SUM(C12:C13)</f>
-        <v>475337.88635971211</v>
+        <v>475337.88635970908</v>
       </c>
       <c r="K49" s="126" t="s">
         <v>177</v>
@@ -10935,7 +10940,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="170" t="s">
         <v>85</v>
       </c>
@@ -10945,7 +10950,7 @@
       </c>
       <c r="E50" s="173">
         <f ca="1">+C43*C13</f>
-        <v>403394.76677377755</v>
+        <v>403394.76677377417</v>
       </c>
       <c r="K50" s="269">
         <f ca="1">MIN(L50,M50)</f>
@@ -10960,7 +10965,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="170" t="s">
         <v>99</v>
       </c>
@@ -10970,13 +10975,13 @@
       </c>
       <c r="E51" s="174"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C52" s="104"/>
       <c r="G52" s="276" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="99" t="s">
         <v>100</v>
       </c>
@@ -10988,7 +10993,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="170" t="s">
         <v>9</v>
       </c>
@@ -10998,14 +11003,14 @@
       </c>
       <c r="G54" s="183">
         <f ca="1">C8/SUM($C$8:$C$11)</f>
-        <v>0.8015651649151474</v>
+        <v>0.80156516491514995</v>
       </c>
       <c r="H54" s="268">
         <f ca="1">G54*$C$53</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="170" t="s">
         <v>18</v>
       </c>
@@ -11022,7 +11027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="170" t="s">
         <v>19</v>
       </c>
@@ -11032,14 +11037,14 @@
       </c>
       <c r="G56" s="183">
         <f t="shared" ca="1" si="3"/>
-        <v>7.7929946588972662E-2</v>
+        <v>7.7929946588972912E-2</v>
       </c>
       <c r="H56" s="268">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="170" t="s">
         <v>101</v>
       </c>
@@ -11049,17 +11054,17 @@
       </c>
       <c r="G57" s="183">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12050488849587988</v>
+        <v>0.12050488849587711</v>
       </c>
       <c r="H57" s="268">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C58" s="126"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="99" t="s">
         <v>102</v>
       </c>
@@ -11087,31 +11092,31 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="99" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" style="99" customWidth="1"/>
     <col min="2" max="2" width="45.6640625" style="99" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="99" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="99" customWidth="1"/>
     <col min="4" max="4" width="2.6640625" style="114" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="99" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" style="99" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="99" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" style="99" customWidth="1"/>
     <col min="7" max="7" width="18" style="99" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.33203125" style="99" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="99" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="13.33203125" style="99" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="99" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" style="99" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="99"/>
+    <col min="12" max="12" width="12.44140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" style="99" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="20" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:17" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="B1" s="59" t="str">
         <f>Common!A1</f>
         <v>TBD, Inc.</v>
       </c>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="2:17" s="20" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" s="20" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B2" s="29" t="s">
         <v>202</v>
       </c>
@@ -11119,22 +11124,22 @@
       <c r="D2" s="68"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="2:17" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:17" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C3" s="23"/>
       <c r="D3" s="67"/>
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C4" s="150"/>
       <c r="D4" s="151"/>
       <c r="E4" s="150"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C5" s="150"/>
       <c r="D5" s="151"/>
       <c r="E5" s="150"/>
     </row>
-    <row r="6" spans="2:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="152"/>
       <c r="C6" s="278" t="s">
         <v>198</v>
@@ -11150,7 +11155,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="155"/>
       <c r="C7" s="156" t="s">
         <v>15</v>
@@ -11163,7 +11168,7 @@
       <c r="P7" s="20"/>
       <c r="Q7" s="20"/>
     </row>
-    <row r="8" spans="2:17" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="104" t="s">
         <v>9</v>
       </c>
@@ -11175,7 +11180,7 @@
       <c r="E8" s="158"/>
       <c r="F8" s="180">
         <f ca="1">C8/SUM($C$8:$C$11)</f>
-        <v>0.79273971298770607</v>
+        <v>0.79273971298771728</v>
       </c>
       <c r="M8" s="165"/>
       <c r="N8" s="99"/>
@@ -11183,7 +11188,7 @@
       <c r="P8" s="99"/>
       <c r="Q8" s="99"/>
     </row>
-    <row r="9" spans="2:17" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="114" t="s">
         <v>18</v>
       </c>
@@ -11195,7 +11200,7 @@
       <c r="E9" s="158"/>
       <c r="F9" s="180">
         <f t="shared" ref="F9:F11" ca="1" si="0">C9/SUM($C$8:$C$11)</f>
-        <v>1.1010273791495918E-2</v>
+        <v>1.1010273791496073E-2</v>
       </c>
       <c r="M9" s="208"/>
       <c r="N9" s="165"/>
@@ -11203,7 +11208,7 @@
       <c r="P9" s="99"/>
       <c r="Q9" s="99"/>
     </row>
-    <row r="10" spans="2:17" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="114" t="s">
         <v>19</v>
       </c>
@@ -11215,7 +11220,7 @@
       <c r="E10" s="158"/>
       <c r="F10" s="180">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7071916540471422E-2</v>
+        <v>7.7071916540472518E-2</v>
       </c>
       <c r="M10" s="99"/>
       <c r="N10" s="99"/>
@@ -11223,25 +11228,25 @@
       <c r="P10" s="99"/>
       <c r="Q10" s="99"/>
     </row>
-    <row r="11" spans="2:17" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="114" t="s">
         <v>80</v>
       </c>
       <c r="C11" s="258">
         <f ca="1">'Pro Forma - Series A Inputs'!J11</f>
-        <v>1353032.846153846</v>
+        <v>1353032.8461538106</v>
       </c>
       <c r="D11" s="158"/>
       <c r="E11" s="158"/>
       <c r="F11" s="180">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11917809668032656</v>
+        <v>0.11917809668032381</v>
       </c>
       <c r="M11" s="99"/>
       <c r="N11" s="289"/>
       <c r="P11" s="290"/>
     </row>
-    <row r="12" spans="2:17" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="114" t="s">
         <v>87</v>
       </c>
@@ -11259,13 +11264,13 @@
         <v>4.2145593869731802E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:17" s="104" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" s="104" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="114" t="s">
         <v>78</v>
       </c>
       <c r="C13" s="287">
         <f ca="1">'Pro Forma - Series A Inputs'!G14</f>
-        <v>2970710.4615384601</v>
+        <v>2970710.461538421</v>
       </c>
       <c r="D13" s="158"/>
       <c r="E13" s="275">
@@ -11281,13 +11286,13 @@
       <c r="P13" s="173"/>
       <c r="Q13" s="99"/>
     </row>
-    <row r="14" spans="2:17" s="104" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" s="104" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="104" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="161">
         <f ca="1">SUM(C8:C13)</f>
-        <v>14853552.307692306</v>
+        <v>14853552.307692232</v>
       </c>
       <c r="D14" s="158"/>
       <c r="E14" s="162">
@@ -11299,14 +11304,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M15" s="104"/>
       <c r="N15" s="104"/>
       <c r="O15" s="104"/>
       <c r="P15" s="104"/>
       <c r="Q15" s="104"/>
     </row>
-    <row r="16" spans="2:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="293" t="s">
         <v>96</v>
       </c>
@@ -11319,13 +11324,13 @@
       <c r="P16" s="104"/>
       <c r="Q16" s="104"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="294" t="s">
         <v>97</v>
       </c>
       <c r="C17" s="295">
         <f ca="1">C16/C14</f>
-        <v>3.36619812986461</v>
+        <v>3.3661981298646269</v>
       </c>
       <c r="M17" s="104"/>
       <c r="N17" s="104"/>
@@ -11333,14 +11338,14 @@
       <c r="P17" s="104"/>
       <c r="Q17" s="104"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="M18" s="104"/>
       <c r="N18" s="104"/>
       <c r="O18" s="104"/>
       <c r="P18" s="104"/>
       <c r="Q18" s="104"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="308" t="str">
         <f ca="1">IF(AND(C20&gt;0,C21&gt;0),"Below Liquid Preference",IF(AND(C29&gt;0,C30&gt;0),"As Converted","Liquid Preference Up To As Converted"))</f>
         <v>As Converted</v>
@@ -11349,7 +11354,7 @@
       <c r="K19" s="173"/>
       <c r="M19" s="104"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="292" t="s">
         <v>186</v>
       </c>
@@ -11365,7 +11370,7 @@
       <c r="K20" s="173"/>
       <c r="M20" s="104"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="297" t="s">
         <v>187</v>
       </c>
@@ -11380,7 +11385,7 @@
       <c r="I21" s="173"/>
       <c r="K21" s="173"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="297"/>
       <c r="C22" s="299"/>
       <c r="I22" s="173"/>
@@ -11388,13 +11393,13 @@
       <c r="N22" s="173"/>
       <c r="P22" s="173"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="297" t="s">
         <v>189</v>
       </c>
       <c r="C23" s="307">
         <f ca="1">C16-SUM(MAX(C20,C29),MAX(C21,C30))</f>
-        <v>38216557.935014561</v>
+        <v>38216557.935014956</v>
       </c>
       <c r="E23" s="172"/>
       <c r="I23" s="173"/>
@@ -11402,13 +11407,13 @@
       <c r="N23" s="173"/>
       <c r="P23" s="173"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="297" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="305">
         <f ca="1">$C$23*F8</f>
-        <v>30295783.168781485</v>
+        <v>30295783.168782227</v>
       </c>
       <c r="E24" s="164"/>
       <c r="F24" s="172"/>
@@ -11418,78 +11423,78 @@
       <c r="N24" s="173"/>
       <c r="P24" s="173"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" s="301" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="305">
         <f ca="1">$C$23*F9</f>
-        <v>420774.76623307617</v>
+        <v>420774.76623308647</v>
       </c>
       <c r="I25" s="173"/>
       <c r="K25" s="173"/>
       <c r="N25" s="173"/>
       <c r="P25" s="173"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="301" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="305">
         <f ca="1">$C$23*F10</f>
-        <v>2945423.363631533</v>
+        <v>2945423.3636316056</v>
       </c>
       <c r="I26" s="173"/>
       <c r="K26" s="173"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="301" t="s">
         <v>80</v>
       </c>
       <c r="C27" s="306">
         <f ca="1">$C$23*F11</f>
-        <v>4554576.6363684665</v>
+        <v>4554576.6363684088</v>
       </c>
       <c r="I27" s="173"/>
       <c r="K27" s="173"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" s="301"/>
       <c r="C28" s="300"/>
       <c r="I28" s="173"/>
       <c r="K28" s="173"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" s="301" t="s">
         <v>87</v>
       </c>
       <c r="C29" s="302">
         <f ca="1">IF($C$12*$C$17&lt;C20,0,$C$12*$C$17)</f>
-        <v>1783442.0649854392</v>
+        <v>1783442.064985448</v>
       </c>
       <c r="E29" s="164">
         <f ca="1">C12*C17</f>
-        <v>1783442.0649854392</v>
+        <v>1783442.064985448</v>
       </c>
       <c r="I29" s="173"/>
       <c r="K29" s="173"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="303" t="s">
         <v>78</v>
       </c>
       <c r="C30" s="304">
         <f ca="1">IF($C$13*$C$17&lt;C21,0,$C$13*$C$17)</f>
-        <v>9999999.9999999963</v>
+        <v>9999999.9999999143</v>
       </c>
       <c r="E30" s="164">
         <f ca="1">C13*C17</f>
-        <v>9999999.9999999963</v>
+        <v>9999999.9999999143</v>
       </c>
       <c r="I30" s="173"/>
       <c r="K30" s="173"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="I31" s="173"/>
       <c r="K31" s="173"/>
     </row>
@@ -11512,31 +11517,31 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="99" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" style="99" customWidth="1"/>
     <col min="2" max="2" width="45.6640625" style="99" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="99" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="99" customWidth="1"/>
     <col min="4" max="4" width="2.6640625" style="114" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="99" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" style="99" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="99" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" style="99" customWidth="1"/>
     <col min="7" max="7" width="18" style="99" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.33203125" style="99" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="99" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="13.33203125" style="99" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="99" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" style="99" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="99"/>
+    <col min="12" max="12" width="12.44140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" style="99" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="20" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="B1" s="59" t="str">
         <f>Common!A1</f>
         <v>TBD, Inc.</v>
       </c>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="2:7" s="20" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" s="20" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B2" s="29" t="s">
         <v>203</v>
       </c>
@@ -11544,22 +11549,22 @@
       <c r="D2" s="68"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="2:7" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C3" s="23"/>
       <c r="D3" s="67"/>
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C4" s="150"/>
       <c r="D4" s="151"/>
       <c r="E4" s="150"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C5" s="150"/>
       <c r="D5" s="151"/>
       <c r="E5" s="150"/>
     </row>
-    <row r="6" spans="2:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="152"/>
       <c r="C6" s="288" t="s">
         <v>198</v>
@@ -11575,7 +11580,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="155"/>
       <c r="C7" s="156" t="s">
         <v>15</v>
@@ -11583,7 +11588,7 @@
       <c r="D7" s="157"/>
       <c r="E7" s="156"/>
     </row>
-    <row r="8" spans="2:7" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="104" t="s">
         <v>9</v>
       </c>
@@ -11595,10 +11600,10 @@
       <c r="E8" s="158"/>
       <c r="F8" s="180">
         <f ca="1">C8/SUM($C$8:$C$11)</f>
-        <v>0.79273971298770607</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" s="104" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0.79273971298771728</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="114" t="s">
         <v>18</v>
       </c>
@@ -11610,10 +11615,10 @@
       <c r="E9" s="158"/>
       <c r="F9" s="180">
         <f t="shared" ref="F9:F11" ca="1" si="0">C9/SUM($C$8:$C$11)</f>
-        <v>1.1010273791495918E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" s="104" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1.1010273791496073E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="114" t="s">
         <v>19</v>
       </c>
@@ -11625,25 +11630,25 @@
       <c r="E10" s="158"/>
       <c r="F10" s="180">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7071916540471422E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" s="104" customFormat="1" x14ac:dyDescent="0.2">
+        <v>7.7071916540472518E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="114" t="s">
         <v>80</v>
       </c>
       <c r="C11" s="258">
         <f ca="1">'Pro Forma - Series A Inputs'!J11</f>
-        <v>1353032.846153846</v>
+        <v>1353032.8461538106</v>
       </c>
       <c r="D11" s="158"/>
       <c r="E11" s="158"/>
       <c r="F11" s="180">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11917809668032656</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" s="104" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0.11917809668032381</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="114" t="s">
         <v>87</v>
       </c>
@@ -11661,13 +11666,13 @@
         <v>4.2145593869731802E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:7" s="104" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" s="104" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="114" t="s">
         <v>78</v>
       </c>
       <c r="C13" s="287">
         <f ca="1">'Pro Forma - Series A Inputs'!G14</f>
-        <v>2970710.4615384601</v>
+        <v>2970710.461538421</v>
       </c>
       <c r="D13" s="158"/>
       <c r="E13" s="275">
@@ -11679,13 +11684,13 @@
         <v>0.95785440613026818</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="104" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" s="104" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="104" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="161">
         <f ca="1">SUM(C8:C13)</f>
-        <v>14853552.307692306</v>
+        <v>14853552.307692232</v>
       </c>
       <c r="D14" s="158"/>
       <c r="E14" s="162">
@@ -11697,13 +11702,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:7" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C15" s="158"/>
       <c r="D15" s="158"/>
       <c r="E15" s="159"/>
       <c r="G15" s="115"/>
     </row>
-    <row r="16" spans="2:7" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="309" t="s">
         <v>190</v>
       </c>
@@ -11713,8 +11718,8 @@
       <c r="F16" s="311"/>
       <c r="G16" s="115"/>
     </row>
-    <row r="17" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="293" t="s">
         <v>96</v>
       </c>
@@ -11722,16 +11727,16 @@
         <v>2100000</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="294" t="s">
         <v>97</v>
       </c>
       <c r="C19" s="295">
         <f ca="1">C18/$C$14</f>
-        <v>0.14138032145431362</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+        <v>0.14138032145431431</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="308" t="str">
         <f ca="1">IF(AND(C22&gt;0,C23&gt;0),"Below Liquid Preference",IF(AND(C31&gt;0,C32&gt;0),"As Converted","Liquid Preference Up To As Converted"))</f>
         <v>Below Liquid Preference</v>
@@ -11748,7 +11753,7 @@
       <c r="I21" s="173"/>
       <c r="K21" s="173"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="292" t="s">
         <v>186</v>
       </c>
@@ -11767,7 +11772,7 @@
       <c r="I22" s="173"/>
       <c r="K22" s="173"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="297" t="s">
         <v>187</v>
       </c>
@@ -11786,14 +11791,14 @@
       <c r="I23" s="173"/>
       <c r="K23" s="173"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="297"/>
       <c r="C24" s="299"/>
       <c r="E24" s="320"/>
       <c r="I24" s="173"/>
       <c r="K24" s="173"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="297" t="s">
         <v>189</v>
       </c>
@@ -11809,7 +11814,7 @@
       <c r="I25" s="173"/>
       <c r="K25" s="173"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="297" t="s">
         <v>9</v>
       </c>
@@ -11826,7 +11831,7 @@
       <c r="I26" s="173"/>
       <c r="K26" s="173"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="301" t="s">
         <v>18</v>
       </c>
@@ -11843,7 +11848,7 @@
       <c r="K27" s="173"/>
       <c r="N27" s="173"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="301" t="s">
         <v>19</v>
       </c>
@@ -11859,7 +11864,7 @@
       <c r="I28" s="173"/>
       <c r="K28" s="173"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="301" t="s">
         <v>80</v>
       </c>
@@ -11875,14 +11880,14 @@
       <c r="I29" s="173"/>
       <c r="K29" s="173"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="301"/>
       <c r="C30" s="300"/>
       <c r="E30" s="320"/>
       <c r="I30" s="173"/>
       <c r="K30" s="173"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="301" t="s">
         <v>87</v>
       </c>
@@ -11892,7 +11897,7 @@
       </c>
       <c r="E31" s="321">
         <f ca="1">$C$12*$C$19</f>
-        <v>74904.566729388447</v>
+        <v>74904.566729388811</v>
       </c>
       <c r="F31" s="99" t="str">
         <f ca="1">IF(C31&lt;C22,"Total equity conversion based on price per share is less than liquidation value so liquidation value is used","Exit price is more than the investment AND the price per share provides a better return than the liquidation")</f>
@@ -11901,7 +11906,7 @@
       <c r="I31" s="173"/>
       <c r="K31" s="173"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="303" t="s">
         <v>78</v>
       </c>
@@ -11911,7 +11916,7 @@
       </c>
       <c r="E32" s="322">
         <f ca="1">$C$13*$C$19</f>
-        <v>419999.99999999988</v>
+        <v>419999.99999999639</v>
       </c>
       <c r="F32" s="99" t="str">
         <f ca="1">IF(AND(C32&lt;C23,C23&lt;E23),"Total equity conversion based on price per share is less than liquidation value so liquidation value is used",IF(AND(C23&gt;C32,C23&gt;=E23),"Exit price is more than the investment BUT the price per share DOES NOT provide a better return than the liquidation","Exit price is more than the investment AND the price per share provides a better return than the liquidation"))</f>
@@ -11920,11 +11925,11 @@
       <c r="I32" s="173"/>
       <c r="K32" s="173"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I33" s="173"/>
       <c r="K33" s="173"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="312" t="s">
         <v>191</v>
       </c>
@@ -11933,8 +11938,8 @@
       <c r="E34" s="314"/>
       <c r="F34" s="314"/>
     </row>
-    <row r="35" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="293" t="s">
         <v>96</v>
       </c>
@@ -11942,16 +11947,16 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="294" t="s">
         <v>97</v>
       </c>
       <c r="C37" s="295">
         <f ca="1">C36/$C$14</f>
-        <v>0.53859170077833751</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+        <v>0.53859170077834029</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" s="308" t="str">
         <f ca="1">IF(AND(C40&gt;0,C41&gt;0),"Below Liquid Preference",IF(AND(C49&gt;0,C50&gt;0),"As Converted","Liquid Preference Up To As Converted"))</f>
         <v>Liquid Preference Up To As Converted</v>
@@ -11966,7 +11971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" s="292" t="s">
         <v>186</v>
       </c>
@@ -11983,7 +11988,7 @@
         <v>Exit price is more than the investment AND the price per share provides a better return than the liquidation</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B41" s="297" t="s">
         <v>187</v>
       </c>
@@ -12000,18 +12005,18 @@
         <v>Exit price is more than the investment AND the price per share provides a better return than the liquidation</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B42" s="297"/>
       <c r="C42" s="299"/>
       <c r="E42" s="297"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B43" s="297" t="s">
         <v>189</v>
       </c>
       <c r="C43" s="307">
         <f ca="1">C36-SUM(MAX(C40,C49),MAX(C41,C50))</f>
-        <v>2714649.2696023295</v>
+        <v>2714649.269602323</v>
       </c>
       <c r="E43" s="323"/>
       <c r="F43" s="99" t="str">
@@ -12019,13 +12024,13 @@
         <v>Money that remains after the initial investors are paid out and is to be divided in proportion to their shares</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B44" s="297" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="305">
         <f ca="1">$C$43*$F$8</f>
-        <v>2152010.2828468364</v>
+        <v>2152010.282846862</v>
       </c>
       <c r="E44" s="324"/>
       <c r="F44" s="99" t="str">
@@ -12033,13 +12038,13 @@
         <v>The proportion of shares that common makes up multiplied by the money that remains</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B45" s="301" t="s">
         <v>18</v>
       </c>
       <c r="C45" s="305">
         <f ca="1">$C$43*$F$9</f>
-        <v>29889.031706206064</v>
+        <v>29889.031706206413</v>
       </c>
       <c r="E45" s="297"/>
       <c r="F45" s="99" t="str">
@@ -12047,13 +12052,13 @@
         <v>The proportion of shares that outstanding options makes up multiplied by the money that remains</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B46" s="301" t="s">
         <v>19</v>
       </c>
       <c r="C46" s="305">
         <f ca="1">$C$43*$F$10</f>
-        <v>209223.22194344245</v>
+        <v>209223.22194344492</v>
       </c>
       <c r="E46" s="297"/>
       <c r="F46" s="99" t="str">
@@ -12061,13 +12066,13 @@
         <v>The proportion of shares that options available makes up multiplied by the money that remains</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B47" s="301" t="s">
         <v>80</v>
       </c>
       <c r="C47" s="306">
         <f ca="1">$C$43*$F$11</f>
-        <v>323526.73310584429</v>
+        <v>323526.73310583603</v>
       </c>
       <c r="E47" s="297"/>
       <c r="F47" s="99" t="str">
@@ -12075,29 +12080,29 @@
         <v>The proportion of shares that option refresh makes up multiplied by the money that remains</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48" s="301"/>
       <c r="C48" s="300"/>
       <c r="E48" s="297"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="301" t="s">
         <v>87</v>
       </c>
       <c r="C49" s="302">
         <f ca="1">IF($C$12*$C$37&lt;C40,0,$C$12*$C$37)</f>
-        <v>285350.73039767024</v>
+        <v>285350.73039767169</v>
       </c>
       <c r="E49" s="324">
         <f ca="1">$C$12*$C$37</f>
-        <v>285350.73039767024</v>
+        <v>285350.73039767169</v>
       </c>
       <c r="F49" s="99" t="str">
         <f ca="1">IF(C49&lt;C40,"Total equity conversion based on price per share is less than liquidation value so liquidation value is used","Exit price is more than the investment AND the price per share provides a better return than the liquidation")</f>
         <v>Exit price is more than the investment AND the price per share provides a better return than the liquidation</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="303" t="s">
         <v>78</v>
       </c>
@@ -12107,14 +12112,14 @@
       </c>
       <c r="E50" s="325">
         <f ca="1">$C$13*$C$37</f>
-        <v>1599999.9999999993</v>
+        <v>1599999.9999999865</v>
       </c>
       <c r="F50" s="99" t="str">
         <f ca="1">IF(AND(C50&lt;C41,C41&lt;E41),"Total equity conversion based on price per share is less than liquidation value so liquidation value is used",IF(AND(C41&gt;C50,C41&gt;=E41),"Exit price is more than the investment BUT the price per share DOES NOT provide a better return than the liquidation","Exit price is more than the investment AND the price per share provides a better return than the liquidation"))</f>
         <v>Exit price is more than the investment BUT the price per share DOES NOT provide a better return than the liquidation</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="315" t="s">
         <v>192</v>
       </c>
@@ -12123,8 +12128,8 @@
       <c r="E52" s="317"/>
       <c r="F52" s="317"/>
     </row>
-    <row r="53" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="293" t="s">
         <v>96</v>
       </c>
@@ -12132,16 +12137,16 @@
         <v>50000000</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="294" t="s">
         <v>97</v>
       </c>
       <c r="C55" s="295">
         <f ca="1">C54/$C$14</f>
-        <v>3.36619812986461</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+        <v>3.3661981298646269</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="308" t="str">
         <f ca="1">IF(AND(C58&gt;0,C59&gt;0),"Below Liquid Preference",IF(AND(C67&gt;0,C68&gt;0),"As Converted","Liquid Preference Up To As Converted"))</f>
         <v>As Converted</v>
@@ -12156,7 +12161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="292" t="s">
         <v>186</v>
       </c>
@@ -12173,7 +12178,7 @@
         <v>Exit price is more than the investment AND the price per share provides a better return than the liquidation</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="297" t="s">
         <v>187</v>
       </c>
@@ -12190,18 +12195,18 @@
         <v>Exit price is more than the investment AND the price per share provides a better return than the liquidation</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="297"/>
       <c r="C60" s="299"/>
       <c r="E60" s="297"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="297" t="s">
         <v>189</v>
       </c>
       <c r="C61" s="307">
         <f ca="1">C54-SUM(MAX(C58,C67),MAX(C59,C68))</f>
-        <v>38216557.935014561</v>
+        <v>38216557.935014956</v>
       </c>
       <c r="E61" s="323"/>
       <c r="F61" s="99" t="str">
@@ -12209,13 +12214,13 @@
         <v>Money that remains after the initial investors are paid out and is to be divided in proportion to their shares</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="297" t="s">
         <v>9</v>
       </c>
       <c r="C62" s="305">
         <f ca="1">$C$61*$F$8</f>
-        <v>30295783.168781485</v>
+        <v>30295783.168782227</v>
       </c>
       <c r="E62" s="324"/>
       <c r="F62" s="99" t="str">
@@ -12223,13 +12228,13 @@
         <v>The proportion of shares that common makes up multiplied by the money that remains</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="301" t="s">
         <v>18</v>
       </c>
       <c r="C63" s="305">
         <f ca="1">$C$61*$F$9</f>
-        <v>420774.76623307617</v>
+        <v>420774.76623308647</v>
       </c>
       <c r="E63" s="297"/>
       <c r="F63" s="99" t="str">
@@ -12237,13 +12242,13 @@
         <v>The proportion of shares that outstanding options makes up multiplied by the money that remains</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="301" t="s">
         <v>19</v>
       </c>
       <c r="C64" s="305">
         <f ca="1">$C$61*$F$10</f>
-        <v>2945423.363631533</v>
+        <v>2945423.3636316056</v>
       </c>
       <c r="E64" s="297"/>
       <c r="F64" s="99" t="str">
@@ -12251,13 +12256,13 @@
         <v>The proportion of shares that options available makes up multiplied by the money that remains</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="301" t="s">
         <v>80</v>
       </c>
       <c r="C65" s="306">
         <f ca="1">$C$61*$F$11</f>
-        <v>4554576.6363684665</v>
+        <v>4554576.6363684088</v>
       </c>
       <c r="E65" s="297"/>
       <c r="F65" s="99" t="str">
@@ -12265,39 +12270,39 @@
         <v>The proportion of shares that option refresh makes up multiplied by the money that remains</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="301"/>
       <c r="C66" s="300"/>
       <c r="E66" s="297"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="301" t="s">
         <v>87</v>
       </c>
       <c r="C67" s="302">
         <f ca="1">IF($C$12*$C$55&lt;C58,0,$C$12*$C$55)</f>
-        <v>1783442.0649854392</v>
+        <v>1783442.064985448</v>
       </c>
       <c r="E67" s="324">
         <f ca="1">$C$12*$C$55</f>
-        <v>1783442.0649854392</v>
+        <v>1783442.064985448</v>
       </c>
       <c r="F67" s="99" t="str">
         <f ca="1">IF(C67&lt;C58,"Total equity conversion based on price per share is less than liquidation value so liquidation value is used","Exit price is more than the investment AND the price per share provides a better return than the liquidation")</f>
         <v>Exit price is more than the investment AND the price per share provides a better return than the liquidation</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="303" t="s">
         <v>78</v>
       </c>
       <c r="C68" s="304">
         <f ca="1">IF($C$13*$C$55&lt;C59,0,$C$13*$C$55)</f>
-        <v>9999999.9999999963</v>
+        <v>9999999.9999999143</v>
       </c>
       <c r="E68" s="325">
         <f ca="1">$C$13*$C$55</f>
-        <v>9999999.9999999963</v>
+        <v>9999999.9999999143</v>
       </c>
       <c r="F68" s="99" t="str">
         <f ca="1">IF(AND(C68&lt;C59,C59&lt;E59),"Total equity conversion based on price per share is less than liquidation value so liquidation value is used",IF(AND(C59&gt;C68,C59&gt;=E59),"Exit price is more than the investment BUT the price per share DOES NOT provide a better return than the liquidation","Exit price is more than the investment AND the price per share provides a better return than the liquidation"))</f>
@@ -12319,23 +12324,23 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.6640625" style="41" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" style="41" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="41" customWidth="1"/>
     <col min="4" max="4" width="27.6640625" style="41" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" style="41" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="40"/>
       <c r="D1" s="40"/>
     </row>
-    <row r="4" spans="1:5" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>63</v>
       </c>
